--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23106"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E7BF96-C408-4912-8C51-6EA579A54C10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647E065-B5F3-4594-B050-CBD8795DE4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12135" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender ATP URLs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="138">
   <si>
     <t>Service</t>
   </si>
@@ -301,9 +301,6 @@
     <t>*.wdcp.microsoft.com</t>
   </si>
   <si>
-    <t>MAPS - Used by Windows Defender Antivirus to provide cloud-delivered protection</t>
-  </si>
-  <si>
     <t>*.wdcpalt.microsoft.com</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>*.download.microsoft.com</t>
   </si>
   <si>
-    <t>ADL - Alternate location for Windows Defender Antivirus Security intelligence updates</t>
-  </si>
-  <si>
     <t>Malware Submission</t>
   </si>
   <si>
@@ -382,18 +376,12 @@
     <t>https://msdl.microsoft.com/download/symbols</t>
   </si>
   <si>
-    <t>Used by Windows Defender Antivirus to restore certain critical files during remediation flows</t>
-  </si>
-  <si>
     <t>UTC</t>
   </si>
   <si>
     <t>vortex-win.data.microsoft.com</t>
   </si>
   <si>
-    <t>Used by Windows to send client diagnostic data; Windows Defender Antivirus uses this for product quality monitoring purposes</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -422,6 +410,39 @@
   </si>
   <si>
     <t>Microsoft Defender Antivirus</t>
+  </si>
+  <si>
+    <t>Reporting and Notifications</t>
+  </si>
+  <si>
+    <t>*smartscreen-prod.microsoft.com</t>
+  </si>
+  <si>
+    <t>*smartscreen.microsoft.com</t>
+  </si>
+  <si>
+    <t>checkappexec.microsoft.com</t>
+  </si>
+  <si>
+    <t>MAPS - Used by Microsoft Defender Antivirus to provide cloud-delivered protection</t>
+  </si>
+  <si>
+    <t>ADL - Alternate location for Microsoft Defender Antivirus Security intelligence updates</t>
+  </si>
+  <si>
+    <t>Used for Microsoft Defender SmartScreen reporting and notifications</t>
+  </si>
+  <si>
+    <t>Used for Microsoft Defender SmartScreen to check application execution for trusted apps</t>
+  </si>
+  <si>
+    <t>Used by Microsoft Defender Antivirus to restore certain critical files during remediation flows</t>
+  </si>
+  <si>
+    <t>Used by Windows to send client diagnostic data; Microsoft Defender Antivirus uses this for product quality monitoring purposes</t>
+  </si>
+  <si>
+    <t>Microsoft Defender SmartScreen</t>
   </si>
 </sst>
 </file>
@@ -466,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -508,26 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -542,7 +543,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -565,24 +566,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -595,7 +578,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -603,67 +586,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1054,6 +976,67 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1068,21 +1051,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L81" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="0" tableBorderDxfId="15">
-  <autoFilter ref="A1:L81" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L84" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:L84" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{3727FA75-C616-4E13-B0F2-EE59FEB79CEC}" name="Port" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{B769FED4-D11B-43E7-9A4D-0A0AF30EE0A3}" name="Endpoint/URL" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{881F229D-DA2F-4637-BA75-7542C7F33E85}" name="Endpoint/URL Description " dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{EFD00EB6-E110-488B-A765-B5F99B3D4734}" name="Geography" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{447A404E-0460-455B-B761-B654611B7186}" name="Windows 10 / Server 2019" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{687F7C23-40BC-4E84-A494-FA96B63BF85A}" name="Windows 7 / 8.1" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{832A1CFD-EE4E-4E73-81E5-29933609B600}" name="Windows Server 2008 R2 / 2012 R2 / 2016" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{BF859D46-E59D-419F-9CB5-5EB793E0D088}" name="Mac" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{99915AE0-D0C1-4BAC-8C0D-49D2922DF023}" name="Linux" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{5CB77234-CA6E-430E-9D2B-112BCFF4925C}" name="Comments" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{3727FA75-C616-4E13-B0F2-EE59FEB79CEC}" name="Port" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B769FED4-D11B-43E7-9A4D-0A0AF30EE0A3}" name="Endpoint/URL" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{881F229D-DA2F-4637-BA75-7542C7F33E85}" name="Endpoint/URL Description " dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{EFD00EB6-E110-488B-A765-B5F99B3D4734}" name="Geography" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{447A404E-0460-455B-B761-B654611B7186}" name="Windows 10 / Server 2019" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{687F7C23-40BC-4E84-A494-FA96B63BF85A}" name="Windows 7 / 8.1" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{832A1CFD-EE4E-4E73-81E5-29933609B600}" name="Windows Server 2008 R2 / 2012 R2 / 2016" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{BF859D46-E59D-419F-9CB5-5EB793E0D088}" name="Mac" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{99915AE0-D0C1-4BAC-8C0D-49D2922DF023}" name="Linux" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{5CB77234-CA6E-430E-9D2B-112BCFF4925C}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1385,66 +1368,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="42.90625" customWidth="1"/>
-    <col min="5" max="5" width="52.453125" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="7" max="7" width="24.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" customWidth="1"/>
-    <col min="9" max="9" width="22.1796875" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L1" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -1470,9 +1453,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1498,9 +1481,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1526,9 +1509,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1558,9 +1541,9 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1586,9 +1569,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1614,9 +1597,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -1644,9 +1627,9 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1674,9 +1657,9 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1704,9 +1687,9 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
@@ -1734,9 +1717,9 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
@@ -1764,9 +1747,9 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>31</v>
@@ -1794,12 +1777,12 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1">
         <v>443</v>
@@ -1824,12 +1807,12 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1">
         <v>443</v>
@@ -1838,7 +1821,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
@@ -1852,12 +1835,12 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C16" s="1">
         <v>443</v>
@@ -1866,7 +1849,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
@@ -1884,12 +1867,12 @@
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C17" s="1">
         <v>443</v>
@@ -1916,12 +1899,12 @@
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C18" s="1">
         <v>443</v>
@@ -1948,12 +1931,12 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C19" s="1">
         <v>443</v>
@@ -1962,7 +1945,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>38</v>
@@ -1970,8 +1953,12 @@
       <c r="G19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J19" s="4" t="s">
         <v>15</v>
       </c>
@@ -1980,12 +1967,12 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C20" s="1">
         <v>443</v>
@@ -1994,7 +1981,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>38</v>
@@ -2002,8 +1989,12 @@
       <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J20" s="4" t="s">
         <v>15</v>
       </c>
@@ -2012,12 +2003,12 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C21" s="1">
         <v>443</v>
@@ -2026,7 +2017,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
@@ -2040,12 +2031,12 @@
       <c r="K21" s="4"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="1">
         <v>443</v>
@@ -2054,7 +2045,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>38</v>
@@ -2068,12 +2059,12 @@
       <c r="K22" s="4"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C23" s="1">
         <v>443</v>
@@ -2082,7 +2073,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>38</v>
@@ -2096,12 +2087,12 @@
       <c r="K23" s="4"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C24" s="1">
         <v>443</v>
@@ -2110,7 +2101,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
@@ -2124,12 +2115,12 @@
       <c r="K24" s="4"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1">
         <v>443</v>
@@ -2154,12 +2145,12 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C26" s="1">
         <v>443</v>
@@ -2168,7 +2159,7 @@
         <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>51</v>
@@ -2182,12 +2173,12 @@
       <c r="K26" s="4"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C27" s="1">
         <v>443</v>
@@ -2196,7 +2187,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
@@ -2214,12 +2205,12 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C28" s="1">
         <v>443</v>
@@ -2246,12 +2237,12 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C29" s="1">
         <v>443</v>
@@ -2278,12 +2269,12 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1">
         <v>443</v>
@@ -2292,7 +2283,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>51</v>
@@ -2300,8 +2291,12 @@
       <c r="G30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J30" s="4" t="s">
         <v>15</v>
       </c>
@@ -2310,12 +2305,12 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1">
         <v>443</v>
@@ -2324,7 +2319,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>51</v>
@@ -2332,8 +2327,12 @@
       <c r="G31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+      <c r="H31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J31" s="4" t="s">
         <v>15</v>
       </c>
@@ -2342,12 +2341,12 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" s="1">
         <v>443</v>
@@ -2370,12 +2369,12 @@
       <c r="K32" s="4"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C33" s="1">
         <v>443</v>
@@ -2398,12 +2397,12 @@
       <c r="K33" s="4"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1">
         <v>443</v>
@@ -2412,7 +2411,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>51</v>
@@ -2426,12 +2425,12 @@
       <c r="K34" s="4"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1">
         <v>443</v>
@@ -2440,7 +2439,7 @@
         <v>61</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>51</v>
@@ -2454,12 +2453,12 @@
       <c r="K35" s="4"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1">
         <v>443</v>
@@ -2484,12 +2483,12 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1">
         <v>443</v>
@@ -2498,7 +2497,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>63</v>
@@ -2512,12 +2511,12 @@
       <c r="K37" s="4"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1">
         <v>443</v>
@@ -2526,7 +2525,7 @@
         <v>65</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>63</v>
@@ -2544,12 +2543,12 @@
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1">
         <v>443</v>
@@ -2576,12 +2575,12 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1">
         <v>443</v>
@@ -2608,12 +2607,12 @@
       </c>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1">
         <v>443</v>
@@ -2636,12 +2635,12 @@
       <c r="K41" s="4"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1">
         <v>443</v>
@@ -2664,12 +2663,12 @@
       <c r="K42" s="4"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1">
         <v>443</v>
@@ -2692,12 +2691,12 @@
       <c r="K43" s="4"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1">
         <v>443</v>
@@ -2720,12 +2719,12 @@
       <c r="K44" s="4"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1">
         <v>443</v>
@@ -2748,12 +2747,12 @@
       <c r="K45" s="4"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C46" s="1">
         <v>443</v>
@@ -2776,12 +2775,12 @@
       <c r="K46" s="4"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C47" s="1">
         <v>443</v>
@@ -2790,7 +2789,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>63</v>
@@ -2798,8 +2797,12 @@
       <c r="G47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="H47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J47" s="4" t="s">
         <v>15</v>
       </c>
@@ -2808,12 +2811,12 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C48" s="1">
         <v>443</v>
@@ -2822,7 +2825,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>63</v>
@@ -2830,8 +2833,12 @@
       <c r="G48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J48" s="4" t="s">
         <v>15</v>
       </c>
@@ -2840,12 +2847,12 @@
       </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C49" s="1">
         <v>443</v>
@@ -2868,12 +2875,12 @@
       <c r="K49" s="4"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C50" s="1">
         <v>443</v>
@@ -2896,12 +2903,12 @@
       <c r="K50" s="4"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1">
         <v>443</v>
@@ -2924,12 +2931,12 @@
       <c r="K51" s="4"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C52" s="1">
         <v>443</v>
@@ -2952,12 +2959,12 @@
       <c r="K52" s="4"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1">
         <v>443</v>
@@ -2966,7 +2973,7 @@
         <v>80</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>63</v>
@@ -2980,12 +2987,12 @@
       <c r="K53" s="4"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C54" s="1">
         <v>443</v>
@@ -2994,7 +3001,7 @@
         <v>81</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>63</v>
@@ -3008,9 +3015,9 @@
       <c r="K54" s="4"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>82</v>
@@ -3038,9 +3045,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>82</v>
@@ -3068,9 +3075,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>82</v>
@@ -3098,9 +3105,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>88</v>
@@ -3112,7 +3119,7 @@
         <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
@@ -3124,9 +3131,9 @@
       <c r="K58" s="4"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>88</v>
@@ -3135,10 +3142,10 @@
         <v>443</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3150,9 +3157,9 @@
       <c r="K59" s="4"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>88</v>
@@ -3161,10 +3168,10 @@
         <v>443</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -3176,21 +3183,21 @@
       <c r="K60" s="4"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="1">
+        <v>443</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="1">
-        <v>443</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3202,21 +3209,21 @@
       <c r="K61" s="4"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" s="1">
         <v>443</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3228,21 +3235,21 @@
       <c r="K62" s="4"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1">
         <v>443</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -3254,21 +3261,21 @@
       <c r="K63" s="4"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C64" s="1">
+        <v>443</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C64" s="1">
-        <v>443</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3280,12 +3287,12 @@
       <c r="K64" s="4"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C65" s="1">
         <v>443</v>
@@ -3294,7 +3301,7 @@
         <v>66</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>63</v>
@@ -3306,12 +3313,12 @@
       <c r="K65" s="4"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1">
         <v>443</v>
@@ -3320,7 +3327,7 @@
         <v>67</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>63</v>
@@ -3332,12 +3339,12 @@
       <c r="K66" s="4"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C67" s="1">
         <v>443</v>
@@ -3346,7 +3353,7 @@
         <v>41</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>38</v>
@@ -3358,12 +3365,12 @@
       <c r="K67" s="4"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C68" s="1">
         <v>443</v>
@@ -3372,7 +3379,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>38</v>
@@ -3384,12 +3391,12 @@
       <c r="K68" s="4"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C69" s="1">
         <v>443</v>
@@ -3398,7 +3405,7 @@
         <v>54</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>51</v>
@@ -3410,12 +3417,12 @@
       <c r="K69" s="4"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1">
         <v>443</v>
@@ -3424,7 +3431,7 @@
         <v>55</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>51</v>
@@ -3436,24 +3443,24 @@
       <c r="K70" s="4"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="1">
+        <v>443</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="1">
-        <v>443</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3462,24 +3469,24 @@
       <c r="K71" s="4"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C72" s="1">
         <v>443</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -3488,24 +3495,24 @@
       <c r="K72" s="4"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73" s="1">
         <v>443</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3514,24 +3521,24 @@
       <c r="K73" s="4"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C74" s="1">
         <v>443</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -3540,18 +3547,18 @@
       <c r="K74" s="4"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C75" s="1">
         <v>443</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -3566,18 +3573,18 @@
       <c r="K75" s="4"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="1">
+        <v>443</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C76" s="1">
-        <v>443</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -3592,18 +3599,18 @@
       <c r="K76" s="4"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>19</v>
@@ -3618,18 +3625,18 @@
       <c r="K77" s="4"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="1">
         <v>443</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
@@ -3644,21 +3651,21 @@
       <c r="K78" s="4"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C79" s="1">
         <v>443</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3670,21 +3677,21 @@
       <c r="K79" s="4"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C80" s="1">
         <v>443</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3696,31 +3703,109 @@
       <c r="K80" s="4"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="3">
+        <v>443</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="3">
+        <v>443</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="3">
+        <v>443</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="3">
+        <v>443</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="C81" s="10">
-        <v>443</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="11" t="s">
+      <c r="E84" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F84" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="12"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12"/>
-      <c r="L81" s="13"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23122"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2647E065-B5F3-4594-B050-CBD8795DE4CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1FADC41-1DAE-4133-801A-EE4E2D6467ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender ATP URLs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="139">
   <si>
     <t>Service</t>
   </si>
@@ -421,9 +421,6 @@
     <t>*smartscreen.microsoft.com</t>
   </si>
   <si>
-    <t>checkappexec.microsoft.com</t>
-  </si>
-  <si>
     <t>MAPS - Used by Microsoft Defender Antivirus to provide cloud-delivered protection</t>
   </si>
   <si>
@@ -443,6 +440,12 @@
   </si>
   <si>
     <t>Microsoft Defender SmartScreen</t>
+  </si>
+  <si>
+    <t>*checkappexec.microsoft.com</t>
+  </si>
+  <si>
+    <t>*urs.microsoft.com</t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -539,11 +542,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -579,6 +591,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1051,8 +1072,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L84" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:L84" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L85" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:L85" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="10"/>
@@ -1368,26 +1389,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.3984375" customWidth="1"/>
+    <col min="2" max="2" width="28.59765625" customWidth="1"/>
+    <col min="4" max="4" width="42.86328125" customWidth="1"/>
     <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" customWidth="1"/>
+    <col min="9" max="9" width="22.1328125" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>118</v>
       </c>
@@ -1453,7 +1474,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>118</v>
       </c>
@@ -1481,7 +1502,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="7"/>
     </row>
-    <row r="4" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>118</v>
       </c>
@@ -1509,7 +1530,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="7"/>
     </row>
-    <row r="5" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>118</v>
       </c>
@@ -1541,7 +1562,7 @@
       </c>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>118</v>
       </c>
@@ -1569,7 +1590,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>118</v>
       </c>
@@ -1597,7 +1618,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>118</v>
       </c>
@@ -1627,7 +1648,7 @@
       </c>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>118</v>
       </c>
@@ -1657,7 +1678,7 @@
       </c>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>118</v>
       </c>
@@ -1687,7 +1708,7 @@
       </c>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>118</v>
       </c>
@@ -1717,7 +1738,7 @@
       </c>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>118</v>
       </c>
@@ -1747,7 +1768,7 @@
       </c>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>118</v>
       </c>
@@ -1777,7 +1798,7 @@
       </c>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>118</v>
       </c>
@@ -1807,7 +1828,7 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>118</v>
       </c>
@@ -1835,7 +1856,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>118</v>
       </c>
@@ -1867,7 +1888,7 @@
       </c>
       <c r="L16" s="7"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>118</v>
       </c>
@@ -1899,7 +1920,7 @@
       </c>
       <c r="L17" s="7"/>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>118</v>
       </c>
@@ -1931,7 +1952,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>118</v>
       </c>
@@ -1967,7 +1988,7 @@
       </c>
       <c r="L19" s="7"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>118</v>
       </c>
@@ -2003,7 +2024,7 @@
       </c>
       <c r="L20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>118</v>
       </c>
@@ -2031,7 +2052,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="7"/>
     </row>
-    <row r="22" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
         <v>118</v>
       </c>
@@ -2059,7 +2080,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>118</v>
       </c>
@@ -2087,7 +2108,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="7"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>118</v>
       </c>
@@ -2115,7 +2136,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
         <v>118</v>
       </c>
@@ -2145,7 +2166,7 @@
       </c>
       <c r="L25" s="7"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -2173,7 +2194,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="7"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>118</v>
       </c>
@@ -2205,7 +2226,7 @@
       </c>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>118</v>
       </c>
@@ -2237,7 +2258,7 @@
       </c>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>118</v>
       </c>
@@ -2269,7 +2290,7 @@
       </c>
       <c r="L29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>118</v>
       </c>
@@ -2305,7 +2326,7 @@
       </c>
       <c r="L30" s="7"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>118</v>
       </c>
@@ -2341,7 +2362,7 @@
       </c>
       <c r="L31" s="7"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>118</v>
       </c>
@@ -2369,7 +2390,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="7"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>118</v>
       </c>
@@ -2397,7 +2418,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>118</v>
       </c>
@@ -2425,7 +2446,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="7"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>118</v>
       </c>
@@ -2453,7 +2474,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>118</v>
       </c>
@@ -2483,7 +2504,7 @@
       </c>
       <c r="L36" s="7"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>118</v>
       </c>
@@ -2511,7 +2532,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="7"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>118</v>
       </c>
@@ -2543,7 +2564,7 @@
       </c>
       <c r="L38" s="7"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
@@ -2575,7 +2596,7 @@
       </c>
       <c r="L39" s="7"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
         <v>118</v>
       </c>
@@ -2607,7 +2628,7 @@
       </c>
       <c r="L40" s="7"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>118</v>
       </c>
@@ -2635,7 +2656,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="7"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>118</v>
       </c>
@@ -2663,7 +2684,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="7"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>118</v>
       </c>
@@ -2691,7 +2712,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="7"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>118</v>
       </c>
@@ -2719,7 +2740,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="7"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>118</v>
       </c>
@@ -2747,7 +2768,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="7"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>118</v>
       </c>
@@ -2775,7 +2796,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="7"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>118</v>
       </c>
@@ -2811,7 +2832,7 @@
       </c>
       <c r="L47" s="7"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
         <v>118</v>
       </c>
@@ -2847,7 +2868,7 @@
       </c>
       <c r="L48" s="7"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>118</v>
       </c>
@@ -2875,7 +2896,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="7"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>118</v>
       </c>
@@ -2903,7 +2924,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="7"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>118</v>
       </c>
@@ -2931,7 +2952,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="7"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>118</v>
       </c>
@@ -2959,7 +2980,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="7"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>118</v>
       </c>
@@ -2987,7 +3008,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="7"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
         <v>118</v>
       </c>
@@ -3015,7 +3036,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="7"/>
     </row>
-    <row r="55" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
         <v>118</v>
       </c>
@@ -3045,7 +3066,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
@@ -3075,7 +3096,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>118</v>
       </c>
@@ -3105,7 +3126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>126</v>
       </c>
@@ -3119,7 +3140,7 @@
         <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
@@ -3131,7 +3152,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="7"/>
     </row>
-    <row r="59" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
         <v>126</v>
       </c>
@@ -3145,7 +3166,7 @@
         <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3157,7 +3178,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="7"/>
     </row>
-    <row r="60" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
         <v>126</v>
       </c>
@@ -3171,7 +3192,7 @@
         <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -3183,7 +3204,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="7"/>
     </row>
-    <row r="61" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
         <v>126</v>
       </c>
@@ -3209,7 +3230,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="7"/>
     </row>
-    <row r="62" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
         <v>126</v>
       </c>
@@ -3235,7 +3256,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="7"/>
     </row>
-    <row r="63" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
         <v>126</v>
       </c>
@@ -3261,7 +3282,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="7"/>
     </row>
-    <row r="64" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
         <v>126</v>
       </c>
@@ -3275,7 +3296,7 @@
         <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3287,7 +3308,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="7"/>
     </row>
-    <row r="65" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
         <v>126</v>
       </c>
@@ -3313,7 +3334,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="7"/>
     </row>
-    <row r="66" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
         <v>126</v>
       </c>
@@ -3339,7 +3360,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="7"/>
     </row>
-    <row r="67" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
         <v>126</v>
       </c>
@@ -3365,7 +3386,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="7"/>
     </row>
-    <row r="68" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
         <v>126</v>
       </c>
@@ -3391,7 +3412,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="7"/>
     </row>
-    <row r="69" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
         <v>126</v>
       </c>
@@ -3417,7 +3438,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="7"/>
     </row>
-    <row r="70" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
         <v>126</v>
       </c>
@@ -3443,7 +3464,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="7"/>
     </row>
-    <row r="71" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
         <v>126</v>
       </c>
@@ -3469,7 +3490,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="7"/>
     </row>
-    <row r="72" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
         <v>126</v>
       </c>
@@ -3495,7 +3516,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="7"/>
     </row>
-    <row r="73" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
         <v>126</v>
       </c>
@@ -3521,7 +3542,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="7"/>
     </row>
-    <row r="74" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
         <v>126</v>
       </c>
@@ -3547,7 +3568,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="7"/>
     </row>
-    <row r="75" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
         <v>126</v>
       </c>
@@ -3573,7 +3594,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="7"/>
     </row>
-    <row r="76" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
         <v>126</v>
       </c>
@@ -3599,7 +3620,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="7"/>
     </row>
-    <row r="77" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
         <v>126</v>
       </c>
@@ -3625,7 +3646,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="7"/>
     </row>
-    <row r="78" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
         <v>126</v>
       </c>
@@ -3651,7 +3672,7 @@
       <c r="K78" s="4"/>
       <c r="L78" s="7"/>
     </row>
-    <row r="79" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
         <v>126</v>
       </c>
@@ -3665,7 +3686,7 @@
         <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3677,7 +3698,7 @@
       <c r="K79" s="4"/>
       <c r="L79" s="7"/>
     </row>
-    <row r="80" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
         <v>126</v>
       </c>
@@ -3691,7 +3712,7 @@
         <v>116</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3703,7 +3724,7 @@
       <c r="K80" s="4"/>
       <c r="L80" s="7"/>
     </row>
-    <row r="81" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
         <v>126</v>
       </c>
@@ -3717,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>14</v>
@@ -3729,9 +3750,9 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>127</v>
@@ -3743,7 +3764,7 @@
         <v>128</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>14</v>
@@ -3755,9 +3776,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>127</v>
@@ -3769,7 +3790,7 @@
         <v>129</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>14</v>
@@ -3781,9 +3802,9 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>127</v>
@@ -3792,10 +3813,10 @@
         <v>443</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>14</v>
@@ -3806,6 +3827,32 @@
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A85" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85" s="3">
+        <v>443</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1FADC41-1DAE-4133-801A-EE4E2D6467ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508B7C82-3B3F-4C7B-9DEE-72DD9B1A0E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="-12135" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender ATP URLs" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="138">
   <si>
     <t>Service</t>
   </si>
@@ -355,21 +355,6 @@
     <t>CRL</t>
   </si>
   <si>
-    <t>https://www.microsoft.com/pkiops/crl/</t>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/pkiops/certs</t>
-  </si>
-  <si>
-    <t>80/443</t>
-  </si>
-  <si>
-    <t>https://crl.microsoft.com/pki/crl/products</t>
-  </si>
-  <si>
-    <t>https://www.microsoft.com/pki/certs</t>
-  </si>
-  <si>
     <t>Symbols</t>
   </si>
   <si>
@@ -446,6 +431,18 @@
   </si>
   <si>
     <t>*urs.microsoft.com</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/pkiops/crl/</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/pkiops/certs</t>
+  </si>
+  <si>
+    <t>http://crl.microsoft.com/pki/crl/products</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/pki/certs</t>
   </si>
 </sst>
 </file>
@@ -555,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -571,9 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1391,64 +1385,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82:D85"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.3984375" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" customWidth="1"/>
-    <col min="4" max="4" width="42.86328125" customWidth="1"/>
+    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
+    <col min="4" max="4" width="42.81640625" customWidth="1"/>
     <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.265625" customWidth="1"/>
-    <col min="7" max="7" width="24.59765625" customWidth="1"/>
-    <col min="8" max="8" width="17.86328125" customWidth="1"/>
-    <col min="9" max="9" width="22.1328125" customWidth="1"/>
-    <col min="12" max="12" width="13.86328125" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L1" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -1472,11 +1466,11 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1500,17 +1494,17 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="7"/>
-    </row>
-    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1528,11 +1522,11 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1560,11 +1554,11 @@
       <c r="K5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1588,11 +1582,11 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1616,11 +1610,11 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -1646,11 +1640,11 @@
       <c r="K8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1676,11 +1670,11 @@
       <c r="K9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="7"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1706,11 +1700,11 @@
       <c r="K10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
@@ -1736,11 +1730,11 @@
       <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
@@ -1766,17 +1760,17 @@
       <c r="K12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="7"/>
-    </row>
-    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>36</v>
@@ -1796,14 +1790,14 @@
       <c r="K13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1">
         <v>443</v>
@@ -1826,14 +1820,14 @@
       <c r="K14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" s="1">
         <v>443</v>
@@ -1842,7 +1836,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
@@ -1854,14 +1848,14 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1">
         <v>443</v>
@@ -1870,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
@@ -1886,14 +1880,14 @@
       <c r="K16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C17" s="1">
         <v>443</v>
@@ -1918,14 +1912,14 @@
       <c r="K17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C18" s="1">
         <v>443</v>
@@ -1950,14 +1944,14 @@
       <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C19" s="1">
         <v>443</v>
@@ -1966,7 +1960,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>38</v>
@@ -1986,14 +1980,14 @@
       <c r="K19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1">
         <v>443</v>
@@ -2002,7 +1996,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>38</v>
@@ -2022,14 +2016,14 @@
       <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1">
         <v>443</v>
@@ -2038,7 +2032,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
@@ -2050,14 +2044,14 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" s="1">
         <v>443</v>
@@ -2066,7 +2060,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>38</v>
@@ -2078,14 +2072,14 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1">
         <v>443</v>
@@ -2094,7 +2088,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>38</v>
@@ -2106,14 +2100,14 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1">
         <v>443</v>
@@ -2122,7 +2116,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
@@ -2134,14 +2128,14 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C25" s="1">
         <v>443</v>
@@ -2164,14 +2158,14 @@
       <c r="K25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1">
         <v>443</v>
@@ -2180,7 +2174,7 @@
         <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>51</v>
@@ -2192,14 +2186,14 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1">
         <v>443</v>
@@ -2208,7 +2202,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
@@ -2224,14 +2218,14 @@
       <c r="K27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C28" s="1">
         <v>443</v>
@@ -2256,14 +2250,14 @@
       <c r="K28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1">
         <v>443</v>
@@ -2288,14 +2282,14 @@
       <c r="K29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1">
         <v>443</v>
@@ -2304,7 +2298,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>51</v>
@@ -2324,14 +2318,14 @@
       <c r="K30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1">
         <v>443</v>
@@ -2340,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>51</v>
@@ -2360,14 +2354,14 @@
       <c r="K31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C32" s="1">
         <v>443</v>
@@ -2388,14 +2382,14 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C33" s="1">
         <v>443</v>
@@ -2416,14 +2410,14 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1">
         <v>443</v>
@@ -2432,7 +2426,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>51</v>
@@ -2444,14 +2438,14 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1">
         <v>443</v>
@@ -2460,7 +2454,7 @@
         <v>61</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>51</v>
@@ -2472,14 +2466,14 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1">
         <v>443</v>
@@ -2502,14 +2496,14 @@
       <c r="K36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1">
         <v>443</v>
@@ -2518,7 +2512,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>63</v>
@@ -2530,14 +2524,14 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1">
         <v>443</v>
@@ -2546,7 +2540,7 @@
         <v>65</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>63</v>
@@ -2562,14 +2556,14 @@
       <c r="K38" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C39" s="1">
         <v>443</v>
@@ -2594,14 +2588,14 @@
       <c r="K39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1">
         <v>443</v>
@@ -2626,14 +2620,14 @@
       <c r="K40" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C41" s="1">
         <v>443</v>
@@ -2654,14 +2648,14 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C42" s="1">
         <v>443</v>
@@ -2682,14 +2676,14 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1">
         <v>443</v>
@@ -2710,14 +2704,14 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C44" s="1">
         <v>443</v>
@@ -2738,14 +2732,14 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C45" s="1">
         <v>443</v>
@@ -2766,14 +2760,14 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1">
         <v>443</v>
@@ -2794,14 +2788,14 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1">
         <v>443</v>
@@ -2810,7 +2804,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>63</v>
@@ -2830,14 +2824,14 @@
       <c r="K47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C48" s="1">
         <v>443</v>
@@ -2846,7 +2840,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>63</v>
@@ -2866,14 +2860,14 @@
       <c r="K48" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1">
         <v>443</v>
@@ -2894,14 +2888,14 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="7"/>
-    </row>
-    <row r="50" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1">
         <v>443</v>
@@ -2922,14 +2916,14 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="7"/>
-    </row>
-    <row r="51" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C51" s="1">
         <v>443</v>
@@ -2950,14 +2944,14 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="7"/>
-    </row>
-    <row r="52" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1">
         <v>443</v>
@@ -2978,14 +2972,14 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="7"/>
-    </row>
-    <row r="53" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C53" s="1">
         <v>443</v>
@@ -2994,7 +2988,7 @@
         <v>80</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>63</v>
@@ -3006,14 +3000,14 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="7"/>
-    </row>
-    <row r="54" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C54" s="1">
         <v>443</v>
@@ -3022,7 +3016,7 @@
         <v>81</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>63</v>
@@ -3034,11 +3028,11 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="7"/>
-    </row>
-    <row r="55" spans="1:12" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>82</v>
@@ -3062,13 +3056,13 @@
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="7" t="s">
+      <c r="L55" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>82</v>
@@ -3092,13 +3086,13 @@
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>82</v>
@@ -3122,13 +3116,13 @@
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="7" t="s">
+      <c r="L57" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>88</v>
@@ -3140,7 +3134,7 @@
         <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
@@ -3150,11 +3144,11 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="7"/>
-    </row>
-    <row r="59" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>88</v>
@@ -3166,7 +3160,7 @@
         <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3176,11 +3170,11 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="7"/>
-    </row>
-    <row r="60" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>88</v>
@@ -3192,7 +3186,7 @@
         <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -3202,11 +3196,11 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="7"/>
-    </row>
-    <row r="61" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>92</v>
@@ -3228,11 +3222,11 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="7"/>
-    </row>
-    <row r="62" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>92</v>
@@ -3254,11 +3248,11 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="7"/>
-    </row>
-    <row r="63" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>92</v>
@@ -3280,11 +3274,11 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="7"/>
-    </row>
-    <row r="64" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>97</v>
@@ -3296,7 +3290,7 @@
         <v>98</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3306,11 +3300,11 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="7"/>
-    </row>
-    <row r="65" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>99</v>
@@ -3332,11 +3326,11 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="7"/>
-    </row>
-    <row r="66" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>99</v>
@@ -3358,11 +3352,11 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="7"/>
-    </row>
-    <row r="67" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>99</v>
@@ -3384,11 +3378,11 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="7"/>
-    </row>
-    <row r="68" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>99</v>
@@ -3410,11 +3404,11 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="7"/>
-    </row>
-    <row r="69" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>99</v>
@@ -3436,11 +3430,11 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="7"/>
-    </row>
-    <row r="70" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>99</v>
@@ -3462,11 +3456,11 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="7"/>
-    </row>
-    <row r="71" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>99</v>
@@ -3488,11 +3482,11 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="7"/>
-    </row>
-    <row r="72" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>99</v>
@@ -3514,11 +3508,11 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="7"/>
-    </row>
-    <row r="73" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>99</v>
@@ -3540,11 +3534,11 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="7"/>
-    </row>
-    <row r="74" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>99</v>
@@ -3566,20 +3560,20 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row r="75" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C75" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -3592,20 +3586,20 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row r="76" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C76" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -3618,20 +3612,20 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>110</v>
+      <c r="C77" s="1">
+        <v>80</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>19</v>
@@ -3644,20 +3638,20 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C78" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
@@ -3670,23 +3664,23 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C79" s="1">
         <v>443</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3696,23 +3690,23 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C80" s="1">
         <v>443</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3722,14 +3716,14 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="7"/>
-    </row>
-    <row r="81" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C81" s="3">
         <v>443</v>
@@ -3738,7 +3732,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>14</v>
@@ -3750,21 +3744,21 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="3">
+        <v>443</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E82" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C82" s="3">
-        <v>443</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>14</v>
@@ -3776,21 +3770,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="3">
+        <v>443</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E83" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C83" s="3">
-        <v>443</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>14</v>
@@ -3802,21 +3796,21 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C84" s="3">
         <v>443</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>14</v>
@@ -3828,31 +3822,31 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C85" s="3">
         <v>443</v>
       </c>
-      <c r="D85" s="13" t="s">
-        <v>138</v>
+      <c r="D85" s="12" t="s">
+        <v>133</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F85" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F85" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508B7C82-3B3F-4C7B-9DEE-72DD9B1A0E59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62DD8C0-DF7E-4C20-9C52-86EA8975F7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12135" yWindow="-18120" windowWidth="29040" windowHeight="17640" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Microsoft Defender ATP URLs" sheetId="1" r:id="rId1"/>
+    <sheet name="Microsoft Defender URLs" sheetId="1" r:id="rId1"/>
+    <sheet name="Security Center URLs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="151">
   <si>
     <t>Service</t>
   </si>
@@ -277,9 +278,6 @@
     <t>automatedirstrprdeus.blob.core.windows.net</t>
   </si>
   <si>
-    <t>MMA</t>
-  </si>
-  <si>
     <t>*.ods.opinsights.azure.com</t>
   </si>
   <si>
@@ -370,30 +368,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Microsoft Defender ATP</t>
-  </si>
-  <si>
-    <t>Microsoft Defender ATP EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Defender ATP EDR Cyber Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Defender ATP Command and Control </t>
-  </si>
-  <si>
-    <t>Microsoft Defender ATP Malware Sample Submission Storage</t>
-  </si>
-  <si>
-    <t>Microsoft Defender ATP AutoIR Sample Storage</t>
-  </si>
-  <si>
-    <t>Microsoft Defender ATP UK</t>
-  </si>
-  <si>
-    <t>Microsoft Defender ATP US</t>
-  </si>
-  <si>
     <t>Microsoft Defender Antivirus</t>
   </si>
   <si>
@@ -443,6 +417,72 @@
   </si>
   <si>
     <t>http://www.microsoft.com/pki/certs</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint EU</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint UK</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint US</t>
+  </si>
+  <si>
+    <t>Microsoft Monitoring Agent (MMA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Defender for Endpoint EDR Cyber Data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Defender for Endpoint Command and Control </t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint Malware Sample Submission Storage</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint AutoIR Sample Storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*.blob.core.windows.net </t>
+  </si>
+  <si>
+    <t>https://*.microsoftonline-p.com</t>
+  </si>
+  <si>
+    <t>https://*.securitycenter.windows.com</t>
+  </si>
+  <si>
+    <t>https://automatediracs-eus-prd.securitycenter.windows.com</t>
+  </si>
+  <si>
+    <t>https://login.microsoftonline.com</t>
+  </si>
+  <si>
+    <t>https://login.windows.net</t>
+  </si>
+  <si>
+    <t>https://onboardingpackagescusprd.blob.core.windows.net</t>
+  </si>
+  <si>
+    <t>https://secure.aadcdn.microsoftonline-p.com</t>
+  </si>
+  <si>
+    <t>https://securitycenter.windows.com</t>
+  </si>
+  <si>
+    <t>https://static2.sharepointonline.com</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Security Center Portal URL</t>
   </si>
 </sst>
 </file>
@@ -473,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,8 +526,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -548,11 +594,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -595,6 +671,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,20 +1477,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
-    <col min="2" max="2" width="28.6328125" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.921875" customWidth="1"/>
+    <col min="2" max="2" width="31.84375" customWidth="1"/>
+    <col min="4" max="4" width="42.84375" customWidth="1"/>
     <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="7" max="7" width="24.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="22.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.23046875" customWidth="1"/>
+    <col min="7" max="7" width="24.61328125" customWidth="1"/>
+    <col min="8" max="8" width="17.84375" customWidth="1"/>
+    <col min="9" max="9" width="22.07421875" customWidth="1"/>
+    <col min="12" max="12" width="13.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1437,12 +1525,12 @@
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -1468,9 +1556,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>11</v>
@@ -1496,9 +1584,9 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
@@ -1524,9 +1612,9 @@
       <c r="K4" s="4"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1556,9 +1644,9 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
@@ -1584,9 +1672,9 @@
       <c r="K6" s="4"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
@@ -1612,9 +1700,9 @@
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -1642,9 +1730,9 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -1672,9 +1760,9 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
@@ -1702,9 +1790,9 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
@@ -1732,9 +1820,9 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
@@ -1762,9 +1850,9 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>31</v>
@@ -1792,12 +1880,12 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C14" s="1">
         <v>443</v>
@@ -1822,12 +1910,12 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C15" s="1">
         <v>443</v>
@@ -1836,7 +1924,7 @@
         <v>39</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
@@ -1850,12 +1938,12 @@
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C16" s="1">
         <v>443</v>
@@ -1864,7 +1952,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>38</v>
@@ -1882,12 +1970,12 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1">
         <v>443</v>
@@ -1914,12 +2002,12 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1">
         <v>443</v>
@@ -1946,12 +2034,12 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1">
         <v>443</v>
@@ -1960,7 +2048,7 @@
         <v>44</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>38</v>
@@ -1982,12 +2070,12 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C20" s="1">
         <v>443</v>
@@ -1996,7 +2084,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>38</v>
@@ -2018,12 +2106,12 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C21" s="1">
         <v>443</v>
@@ -2032,7 +2120,7 @@
         <v>46</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>38</v>
@@ -2046,12 +2134,12 @@
       <c r="K21" s="4"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1">
         <v>443</v>
@@ -2060,7 +2148,7 @@
         <v>47</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>38</v>
@@ -2074,12 +2162,12 @@
       <c r="K22" s="4"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1">
         <v>443</v>
@@ -2088,7 +2176,7 @@
         <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>38</v>
@@ -2102,12 +2190,12 @@
       <c r="K23" s="4"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1">
         <v>443</v>
@@ -2116,7 +2204,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>38</v>
@@ -2130,12 +2218,12 @@
       <c r="K24" s="4"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C25" s="1">
         <v>443</v>
@@ -2160,12 +2248,12 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1">
         <v>443</v>
@@ -2174,7 +2262,7 @@
         <v>52</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>51</v>
@@ -2188,12 +2276,12 @@
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1">
         <v>443</v>
@@ -2202,7 +2290,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>51</v>
@@ -2220,12 +2308,12 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1">
         <v>443</v>
@@ -2252,12 +2340,12 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C29" s="1">
         <v>443</v>
@@ -2284,12 +2372,12 @@
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C30" s="1">
         <v>443</v>
@@ -2298,7 +2386,7 @@
         <v>56</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>51</v>
@@ -2320,12 +2408,12 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C31" s="1">
         <v>443</v>
@@ -2334,7 +2422,7 @@
         <v>57</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>51</v>
@@ -2356,12 +2444,12 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C32" s="1">
         <v>443</v>
@@ -2384,12 +2472,12 @@
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C33" s="1">
         <v>443</v>
@@ -2412,12 +2500,12 @@
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1">
         <v>443</v>
@@ -2426,7 +2514,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>51</v>
@@ -2440,12 +2528,12 @@
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C35" s="1">
         <v>443</v>
@@ -2454,7 +2542,7 @@
         <v>61</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>51</v>
@@ -2468,12 +2556,12 @@
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C36" s="1">
         <v>443</v>
@@ -2498,12 +2586,12 @@
       </c>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1">
         <v>443</v>
@@ -2512,7 +2600,7 @@
         <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>63</v>
@@ -2526,12 +2614,12 @@
       <c r="K37" s="4"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1">
         <v>443</v>
@@ -2540,7 +2628,7 @@
         <v>65</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>63</v>
@@ -2558,12 +2646,12 @@
       </c>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1">
         <v>443</v>
@@ -2590,12 +2678,12 @@
       </c>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1">
         <v>443</v>
@@ -2622,12 +2710,12 @@
       </c>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C41" s="1">
         <v>443</v>
@@ -2650,12 +2738,12 @@
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1">
         <v>443</v>
@@ -2678,12 +2766,12 @@
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C43" s="1">
         <v>443</v>
@@ -2706,12 +2794,12 @@
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1">
         <v>443</v>
@@ -2734,12 +2822,12 @@
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C45" s="1">
         <v>443</v>
@@ -2762,12 +2850,12 @@
       <c r="K45" s="4"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C46" s="1">
         <v>443</v>
@@ -2790,12 +2878,12 @@
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1">
         <v>443</v>
@@ -2804,7 +2892,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>63</v>
@@ -2826,12 +2914,12 @@
       </c>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1">
         <v>443</v>
@@ -2840,7 +2928,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>63</v>
@@ -2862,12 +2950,12 @@
       </c>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1">
         <v>443</v>
@@ -2890,12 +2978,12 @@
       <c r="K49" s="4"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C50" s="1">
         <v>443</v>
@@ -2918,12 +3006,12 @@
       <c r="K50" s="4"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1">
         <v>443</v>
@@ -2946,12 +3034,12 @@
       <c r="K51" s="4"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1">
         <v>443</v>
@@ -2974,12 +3062,12 @@
       <c r="K52" s="4"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C53" s="1">
         <v>443</v>
@@ -2988,7 +3076,7 @@
         <v>80</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>63</v>
@@ -3002,12 +3090,12 @@
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C54" s="1">
         <v>443</v>
@@ -3016,7 +3104,7 @@
         <v>81</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>63</v>
@@ -3030,21 +3118,21 @@
       <c r="K54" s="4"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="1">
+        <v>443</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="1">
-        <v>443</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="4"/>
@@ -3057,24 +3145,24 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="1">
+        <v>443</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="1">
-        <v>443</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="4"/>
@@ -3087,24 +3175,24 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C57" s="1">
         <v>443</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="4"/>
@@ -3117,24 +3205,24 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C58" s="1">
+        <v>443</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C58" s="1">
-        <v>443</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E58" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>14</v>
@@ -3146,21 +3234,21 @@
       <c r="K58" s="4"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="1">
         <v>443</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>14</v>
@@ -3172,21 +3260,21 @@
       <c r="K59" s="4"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="1">
         <v>443</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>14</v>
@@ -3198,21 +3286,21 @@
       <c r="K60" s="4"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="1">
+        <v>443</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C61" s="1">
-        <v>443</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="E61" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3224,21 +3312,21 @@
       <c r="K61" s="4"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>443</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>14</v>
@@ -3250,21 +3338,21 @@
       <c r="K62" s="4"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>443</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>14</v>
@@ -3276,21 +3364,21 @@
       <c r="K63" s="4"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="1">
+        <v>443</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="1">
-        <v>443</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3302,12 +3390,12 @@
       <c r="K64" s="4"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" s="1">
         <v>443</v>
@@ -3316,7 +3404,7 @@
         <v>66</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>63</v>
@@ -3328,12 +3416,12 @@
       <c r="K65" s="4"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" s="1">
         <v>443</v>
@@ -3342,7 +3430,7 @@
         <v>67</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>63</v>
@@ -3354,12 +3442,12 @@
       <c r="K66" s="4"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" s="1">
         <v>443</v>
@@ -3368,7 +3456,7 @@
         <v>41</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>38</v>
@@ -3380,12 +3468,12 @@
       <c r="K67" s="4"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" s="1">
         <v>443</v>
@@ -3394,7 +3482,7 @@
         <v>43</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>38</v>
@@ -3406,12 +3494,12 @@
       <c r="K68" s="4"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="1">
         <v>443</v>
@@ -3420,7 +3508,7 @@
         <v>54</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>51</v>
@@ -3432,12 +3520,12 @@
       <c r="K69" s="4"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" s="1">
         <v>443</v>
@@ -3446,7 +3534,7 @@
         <v>55</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>51</v>
@@ -3458,24 +3546,24 @@
       <c r="K70" s="4"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="1">
+        <v>443</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="1">
-        <v>443</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3484,24 +3572,24 @@
       <c r="K71" s="4"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="1">
+        <v>443</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C72" s="1">
-        <v>443</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F72" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -3510,24 +3598,24 @@
       <c r="K72" s="4"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="1">
+        <v>443</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C73" s="1">
-        <v>443</v>
-      </c>
-      <c r="D73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3536,24 +3624,24 @@
       <c r="K73" s="4"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B74" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C74" s="1">
+        <v>443</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="1">
-        <v>443</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -3562,18 +3650,18 @@
       <c r="K74" s="4"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" s="1">
         <v>80</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>19</v>
@@ -3588,18 +3676,18 @@
       <c r="K75" s="4"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C76" s="1">
         <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -3614,18 +3702,18 @@
       <c r="K76" s="4"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" s="1">
         <v>80</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>19</v>
@@ -3640,18 +3728,18 @@
       <c r="K77" s="4"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C78" s="1">
         <v>80</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
@@ -3666,21 +3754,21 @@
       <c r="K78" s="4"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C79" s="1">
+        <v>443</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="1">
-        <v>443</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3692,21 +3780,21 @@
       <c r="K79" s="4"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C80" s="1">
+        <v>443</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="1">
-        <v>443</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3718,12 +3806,12 @@
       <c r="K80" s="4"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="3">
         <v>443</v>
@@ -3732,7 +3820,7 @@
         <v>24</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>14</v>
@@ -3744,21 +3832,21 @@
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C82" s="3">
         <v>443</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>14</v>
@@ -3770,21 +3858,21 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C83" s="3">
         <v>443</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>14</v>
@@ -3796,21 +3884,21 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C84" s="3">
         <v>443</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>14</v>
@@ -3822,21 +3910,21 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="3" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C85" s="3">
         <v>443</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>14</v>
@@ -3855,4 +3943,156 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CF86A1-6F7D-42DB-9559-2FAB96C818E2}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="33.07421875" customWidth="1"/>
+    <col min="2" max="2" width="55.4609375" customWidth="1"/>
+    <col min="3" max="3" width="53.4609375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23513"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62DD8C0-DF7E-4C20-9C52-86EA8975F7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2316755-24DA-49FD-8FF9-825D79933E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender URLs" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="152">
   <si>
     <t>Service</t>
   </si>
@@ -483,6 +483,9 @@
   </si>
   <si>
     <t>Microsoft Defender Security Center Portal URL</t>
+  </si>
+  <si>
+    <t>*.azure-automation.net</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1157,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L85" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:L85" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L86" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+  <autoFilter ref="A1:L86" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="10"/>
@@ -1471,26 +1474,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.921875" customWidth="1"/>
-    <col min="2" max="2" width="31.84375" customWidth="1"/>
-    <col min="4" max="4" width="42.84375" customWidth="1"/>
+    <col min="1" max="1" width="33.90625" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" customWidth="1"/>
+    <col min="4" max="4" width="42.81640625" customWidth="1"/>
     <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.23046875" customWidth="1"/>
-    <col min="7" max="7" width="24.61328125" customWidth="1"/>
-    <col min="8" max="8" width="17.84375" customWidth="1"/>
-    <col min="9" max="9" width="22.07421875" customWidth="1"/>
-    <col min="12" max="12" width="13.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" customWidth="1"/>
+    <col min="9" max="9" width="22.08984375" customWidth="1"/>
+    <col min="12" max="12" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>129</v>
       </c>
@@ -1556,7 +1559,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="29.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>129</v>
       </c>
@@ -1584,7 +1587,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>129</v>
       </c>
@@ -1612,7 +1615,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>129</v>
       </c>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>129</v>
       </c>
@@ -1672,7 +1675,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>129</v>
       </c>
@@ -1700,7 +1703,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>129</v>
       </c>
@@ -1730,7 +1733,7 @@
       </c>
       <c r="L8" s="6"/>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>129</v>
       </c>
@@ -1760,7 +1763,7 @@
       </c>
       <c r="L9" s="6"/>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>129</v>
       </c>
@@ -1790,7 +1793,7 @@
       </c>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>129</v>
       </c>
@@ -1820,7 +1823,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>129</v>
       </c>
@@ -1850,7 +1853,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>129</v>
       </c>
@@ -1880,7 +1883,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>129</v>
       </c>
@@ -1910,7 +1913,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>129</v>
       </c>
@@ -1938,7 +1941,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>129</v>
       </c>
@@ -1970,7 +1973,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>129</v>
       </c>
@@ -2002,7 +2005,7 @@
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>129</v>
       </c>
@@ -2034,7 +2037,7 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>129</v>
       </c>
@@ -2070,7 +2073,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>129</v>
       </c>
@@ -2106,7 +2109,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
         <v>129</v>
       </c>
@@ -2134,7 +2137,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
         <v>129</v>
       </c>
@@ -2162,7 +2165,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
         <v>129</v>
       </c>
@@ -2190,7 +2193,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>129</v>
       </c>
@@ -2218,7 +2221,7 @@
       <c r="K24" s="4"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
         <v>129</v>
       </c>
@@ -2248,7 +2251,7 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
         <v>129</v>
       </c>
@@ -2276,7 +2279,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>129</v>
       </c>
@@ -2308,7 +2311,7 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
         <v>129</v>
       </c>
@@ -2340,7 +2343,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
         <v>129</v>
       </c>
@@ -2372,7 +2375,7 @@
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
         <v>129</v>
       </c>
@@ -2408,7 +2411,7 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>129</v>
       </c>
@@ -2444,7 +2447,7 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>129</v>
       </c>
@@ -2472,7 +2475,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>129</v>
       </c>
@@ -2500,7 +2503,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
         <v>129</v>
       </c>
@@ -2528,7 +2531,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
         <v>129</v>
       </c>
@@ -2556,7 +2559,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>129</v>
       </c>
@@ -2586,7 +2589,7 @@
       </c>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>129</v>
       </c>
@@ -2614,7 +2617,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>129</v>
       </c>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>129</v>
       </c>
@@ -2678,7 +2681,7 @@
       </c>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>129</v>
       </c>
@@ -2710,7 +2713,7 @@
       </c>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>129</v>
       </c>
@@ -2738,7 +2741,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
@@ -2766,7 +2769,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>129</v>
       </c>
@@ -2794,7 +2797,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>129</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>129</v>
       </c>
@@ -2850,7 +2853,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>129</v>
       </c>
@@ -2878,7 +2881,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>129</v>
       </c>
@@ -2914,7 +2917,7 @@
       </c>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3" t="s">
         <v>129</v>
       </c>
@@ -2950,7 +2953,7 @@
       </c>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3" t="s">
         <v>129</v>
       </c>
@@ -2978,7 +2981,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3" t="s">
         <v>129</v>
       </c>
@@ -3006,7 +3009,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3" t="s">
         <v>129</v>
       </c>
@@ -3034,7 +3037,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3" t="s">
         <v>129</v>
       </c>
@@ -3062,7 +3065,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3" t="s">
         <v>129</v>
       </c>
@@ -3090,7 +3093,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3" t="s">
         <v>129</v>
       </c>
@@ -3118,7 +3121,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3" t="s">
         <v>129</v>
       </c>
@@ -3148,7 +3151,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3" t="s">
         <v>129</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="58.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3" t="s">
         <v>129</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>443</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>83</v>
@@ -3199,42 +3202,44 @@
       <c r="H57" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I57" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C58" s="1">
         <v>443</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="2"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="H58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="6"/>
-    </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L58" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3" t="s">
         <v>112</v>
       </c>
@@ -3245,7 +3250,7 @@
         <v>443</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>116</v>
@@ -3260,7 +3265,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3" t="s">
         <v>112</v>
       </c>
@@ -3271,7 +3276,7 @@
         <v>443</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>116</v>
@@ -3286,21 +3291,21 @@
       <c r="K60" s="4"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C61" s="1">
         <v>443</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>14</v>
@@ -3312,7 +3317,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3" t="s">
         <v>112</v>
       </c>
@@ -3323,7 +3328,7 @@
         <v>443</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>93</v>
@@ -3338,7 +3343,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3" t="s">
         <v>112</v>
       </c>
@@ -3349,7 +3354,7 @@
         <v>443</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>93</v>
@@ -3364,21 +3369,21 @@
       <c r="K63" s="4"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>443</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>14</v>
@@ -3390,24 +3395,24 @@
       <c r="K64" s="4"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>98</v>
+      <c r="B65" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C65" s="1">
         <v>443</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3416,7 +3421,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3" t="s">
         <v>112</v>
       </c>
@@ -3427,7 +3432,7 @@
         <v>443</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>99</v>
@@ -3442,7 +3447,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3" t="s">
         <v>112</v>
       </c>
@@ -3453,13 +3458,13 @@
         <v>443</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3468,7 +3473,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3" t="s">
         <v>112</v>
       </c>
@@ -3479,7 +3484,7 @@
         <v>443</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>99</v>
@@ -3494,7 +3499,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3" t="s">
         <v>112</v>
       </c>
@@ -3505,13 +3510,13 @@
         <v>443</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -3520,7 +3525,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3" t="s">
         <v>112</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>443</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>99</v>
@@ -3546,7 +3551,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3" t="s">
         <v>112</v>
       </c>
@@ -3557,13 +3562,13 @@
         <v>443</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3572,7 +3577,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3" t="s">
         <v>112</v>
       </c>
@@ -3583,7 +3588,7 @@
         <v>443</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>99</v>
@@ -3598,7 +3603,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3" t="s">
         <v>112</v>
       </c>
@@ -3609,13 +3614,13 @@
         <v>443</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3624,7 +3629,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3" t="s">
         <v>112</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>443</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>99</v>
@@ -3650,24 +3655,24 @@
       <c r="K74" s="4"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C75" s="1">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -3676,7 +3681,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3" t="s">
         <v>112</v>
       </c>
@@ -3687,7 +3692,7 @@
         <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>19</v>
@@ -3702,7 +3707,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3" t="s">
         <v>112</v>
       </c>
@@ -3713,7 +3718,7 @@
         <v>80</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>19</v>
@@ -3728,7 +3733,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3" t="s">
         <v>112</v>
       </c>
@@ -3739,7 +3744,7 @@
         <v>80</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>19</v>
@@ -3754,21 +3759,21 @@
       <c r="K78" s="4"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>14</v>
@@ -3780,21 +3785,21 @@
       <c r="K79" s="4"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="1">
         <v>443</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>14</v>
@@ -3806,47 +3811,47 @@
       <c r="K80" s="4"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C81" s="3">
-        <v>443</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C81" s="1">
+        <v>443</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="3">
+        <v>443</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E82" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="3">
-        <v>443</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>14</v>
@@ -3858,7 +3863,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3" t="s">
         <v>122</v>
       </c>
@@ -3869,7 +3874,7 @@
         <v>443</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>118</v>
@@ -3884,7 +3889,7 @@
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3" t="s">
         <v>122</v>
       </c>
@@ -3895,10 +3900,10 @@
         <v>443</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>14</v>
@@ -3910,7 +3915,7 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3" t="s">
         <v>122</v>
       </c>
@@ -3920,21 +3925,47 @@
       <c r="C85" s="3">
         <v>443</v>
       </c>
-      <c r="D85" s="12" t="s">
-        <v>124</v>
+      <c r="D85" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="F85" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="14"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C86" s="3">
+        <v>443</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,14 +3984,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.07421875" customWidth="1"/>
-    <col min="2" max="2" width="55.4609375" customWidth="1"/>
-    <col min="3" max="3" width="53.4609375" customWidth="1"/>
+    <col min="1" max="1" width="33.08984375" customWidth="1"/>
+    <col min="2" max="2" width="55.453125" customWidth="1"/>
+    <col min="3" max="3" width="53.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3971,7 +4002,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>129</v>
       </c>
@@ -3982,7 +4013,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>129</v>
       </c>
@@ -3993,7 +4024,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="17" t="s">
         <v>129</v>
       </c>
@@ -4004,7 +4035,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>129</v>
       </c>
@@ -4015,7 +4046,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
         <v>129</v>
       </c>
@@ -4026,7 +4057,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
         <v>129</v>
       </c>
@@ -4037,7 +4068,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="17" t="s">
         <v>129</v>
       </c>
@@ -4048,7 +4079,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
         <v>129</v>
       </c>
@@ -4059,7 +4090,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>129</v>
       </c>
@@ -4070,7 +4101,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
         <v>129</v>
       </c>
@@ -4081,7 +4112,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
         <v>129</v>
       </c>
@@ -4095,4 +4126,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23615"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2316755-24DA-49FD-8FF9-825D79933E4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DF745B-A2C8-45D5-B986-875C31357090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender URLs" sheetId="1" r:id="rId1"/>
     <sheet name="Security Center URLs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="158">
   <si>
     <t>Service</t>
   </si>
@@ -65,6 +65,12 @@
     <t>Linux</t>
   </si>
   <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint</t>
+  </si>
+  <si>
     <t>Common</t>
   </si>
   <si>
@@ -98,10 +104,22 @@
     <t>Used by the Connected User Experiences and Telemetry component and connects to the Microsoft Data Management service</t>
   </si>
   <si>
-    <t>notify.windows.com</t>
-  </si>
-  <si>
-    <t>Windows Push Notification Services (WNS)</t>
+    <t>*.notify.windows.com</t>
+  </si>
+  <si>
+    <t>Windows Push Notification Services (WNS) - Live Response</t>
+  </si>
+  <si>
+    <t>Required for Live Response Performance (Direct Connection/Proxy bypass required)</t>
+  </si>
+  <si>
+    <t>*.wns.windows.com</t>
+  </si>
+  <si>
+    <t>login.microsoftonline.com</t>
+  </si>
+  <si>
+    <t>login.live.com</t>
   </si>
   <si>
     <t>settings-win.data.microsoft.com</t>
@@ -110,6 +128,9 @@
     <t>Connected User Experiences and Telemetry Channel</t>
   </si>
   <si>
+    <t>Not required for Windows 10 1809 (RS5) and above</t>
+  </si>
+  <si>
     <t>Common (Mac) (Linux)</t>
   </si>
   <si>
@@ -143,6 +164,9 @@
     <t>crl.microsoft.com</t>
   </si>
   <si>
+    <t>Microsoft Defender for Endpoint EU</t>
+  </si>
+  <si>
     <t>europe.x.cp.wd.microsoft.com</t>
   </si>
   <si>
@@ -152,6 +176,12 @@
     <t>eu.vortex-win.data.microsoft.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Microsoft Defender for Endpoint EDR Cyber Data </t>
+  </si>
+  <si>
+    <t>Not required for Windows 10 1803 (RS4) and above</t>
+  </si>
+  <si>
     <t>eu-v20.events.data.microsoft.com</t>
   </si>
   <si>
@@ -167,21 +197,33 @@
     <t>winatp-gw-neu.microsoft.com</t>
   </si>
   <si>
+    <t xml:space="preserve">Microsoft Defender for Endpoint Command and Control </t>
+  </si>
+  <si>
     <t>winatp-gw-weu.microsoft.com</t>
   </si>
   <si>
     <t>wseu1northprod.blob.core.windows.net</t>
   </si>
   <si>
+    <t>Microsoft Defender for Endpoint Malware Sample Submission Storage</t>
+  </si>
+  <si>
     <t>wseu1westprod.blob.core.windows.net</t>
   </si>
   <si>
     <t>automatedirstrprdweu.blob.core.windows.net</t>
   </si>
   <si>
+    <t>Microsoft Defender for Endpoint AutoIR Sample Storage</t>
+  </si>
+  <si>
     <t>automatedirstrprdneu.blob.core.windows.net</t>
   </si>
   <si>
+    <t>Microsoft Defender for Endpoint UK</t>
+  </si>
+  <si>
     <t>unitedkingdom.x.cp.wd.microsoft.com</t>
   </si>
   <si>
@@ -218,6 +260,9 @@
     <t>automatedirstrprdukw.blob.core.windows.net</t>
   </si>
   <si>
+    <t>Microsoft Defender for Endpoint US</t>
+  </si>
+  <si>
     <t>unitedstates.x.cp.wd.microsoft.com</t>
   </si>
   <si>
@@ -278,27 +323,39 @@
     <t>automatedirstrprdeus.blob.core.windows.net</t>
   </si>
   <si>
+    <t>Microsoft Monitoring Agent (MMA)</t>
+  </si>
+  <si>
     <t>*.ods.opinsights.azure.com</t>
   </si>
   <si>
     <t>MMA for Win 7/8.1/2008R2/2012R2/2016</t>
   </si>
   <si>
-    <t>Required for Win7/Server 2016 and below</t>
+    <t>Required for Windows 7/8.1/Server 2016 and below</t>
   </si>
   <si>
     <t>*.oms.opinsights.azure.com</t>
   </si>
   <si>
+    <t>*.azure-automation.net</t>
+  </si>
+  <si>
     <t>*.blob.core.windows.net</t>
   </si>
   <si>
+    <t>Microsoft Defender Antivirus</t>
+  </si>
+  <si>
     <t>MAPS</t>
   </si>
   <si>
     <t>*.wdcp.microsoft.com</t>
   </si>
   <si>
+    <t>MAPS - Used by Microsoft Defender Antivirus to provide cloud-delivered protection</t>
+  </si>
+  <si>
     <t>*.wdcpalt.microsoft.com</t>
   </si>
   <si>
@@ -326,6 +383,9 @@
     <t>*.download.microsoft.com</t>
   </si>
   <si>
+    <t>ADL - Alternate location for Microsoft Defender Antivirus Security intelligence updates</t>
+  </si>
+  <si>
     <t>Malware Submission</t>
   </si>
   <si>
@@ -353,22 +413,37 @@
     <t>CRL</t>
   </si>
   <si>
+    <t>http://www.microsoft.com/pkiops/crl/</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/pkiops/certs</t>
+  </si>
+  <si>
+    <t>http://crl.microsoft.com/pki/crl/products</t>
+  </si>
+  <si>
+    <t>http://www.microsoft.com/pki/certs</t>
+  </si>
+  <si>
     <t>Symbols</t>
   </si>
   <si>
     <t>https://msdl.microsoft.com/download/symbols</t>
   </si>
   <si>
+    <t>Used by Microsoft Defender Antivirus to restore certain critical files during remediation flows</t>
+  </si>
+  <si>
     <t>UTC</t>
   </si>
   <si>
     <t>vortex-win.data.microsoft.com</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Microsoft Defender Antivirus</t>
+    <t>Used by Windows to send client diagnostic data; Microsoft Defender Antivirus uses this for product quality monitoring purposes</t>
+  </si>
+  <si>
+    <t>Microsoft Defender SmartScreen</t>
   </si>
   <si>
     <t>Reporting and Notifications</t>
@@ -377,78 +452,33 @@
     <t>*smartscreen-prod.microsoft.com</t>
   </si>
   <si>
+    <t>Used for Microsoft Defender SmartScreen reporting and notifications</t>
+  </si>
+  <si>
     <t>*smartscreen.microsoft.com</t>
   </si>
   <si>
-    <t>MAPS - Used by Microsoft Defender Antivirus to provide cloud-delivered protection</t>
-  </si>
-  <si>
-    <t>ADL - Alternate location for Microsoft Defender Antivirus Security intelligence updates</t>
-  </si>
-  <si>
-    <t>Used for Microsoft Defender SmartScreen reporting and notifications</t>
+    <t>*checkappexec.microsoft.com</t>
   </si>
   <si>
     <t>Used for Microsoft Defender SmartScreen to check application execution for trusted apps</t>
   </si>
   <si>
-    <t>Used by Microsoft Defender Antivirus to restore certain critical files during remediation flows</t>
-  </si>
-  <si>
-    <t>Used by Windows to send client diagnostic data; Microsoft Defender Antivirus uses this for product quality monitoring purposes</t>
-  </si>
-  <si>
-    <t>Microsoft Defender SmartScreen</t>
-  </si>
-  <si>
-    <t>*checkappexec.microsoft.com</t>
-  </si>
-  <si>
     <t>*urs.microsoft.com</t>
   </si>
   <si>
-    <t>http://www.microsoft.com/pkiops/crl/</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/pkiops/certs</t>
-  </si>
-  <si>
-    <t>http://crl.microsoft.com/pki/crl/products</t>
-  </si>
-  <si>
-    <t>http://www.microsoft.com/pki/certs</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Endpoint</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Endpoint EU</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Endpoint UK</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Endpoint US</t>
-  </si>
-  <si>
-    <t>Microsoft Monitoring Agent (MMA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Defender for Endpoint EDR Cyber Data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microsoft Defender for Endpoint Command and Control </t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Endpoint Malware Sample Submission Storage</t>
-  </si>
-  <si>
-    <t>Microsoft Defender for Endpoint AutoIR Sample Storage</t>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
   <si>
     <t xml:space="preserve">*.blob.core.windows.net </t>
   </si>
   <si>
+    <t>Microsoft Defender Security Center Portal URL</t>
+  </si>
+  <si>
     <t>https://*.microsoftonline-p.com</t>
   </si>
   <si>
@@ -474,25 +504,13 @@
   </si>
   <si>
     <t>https://static2.sharepointonline.com</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Microsoft Defender Security Center Portal URL</t>
-  </si>
-  <si>
-    <t>*.azure-automation.net</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,6 +1085,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1100,13 +1125,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1157,8 +1175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L86" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
-  <autoFilter ref="A1:L86" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L89" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+  <autoFilter ref="A1:L89" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="10"/>
@@ -1474,26 +1492,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col min="1" max="1" width="33.90625" customWidth="1"/>
-    <col min="2" max="2" width="31.81640625" customWidth="1"/>
-    <col min="4" max="4" width="42.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="42.85546875" customWidth="1"/>
     <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="7" max="7" width="24.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="9" width="22.08984375" customWidth="1"/>
-    <col min="12" max="12" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1528,30 +1546,30 @@
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="39.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="39.6" customHeight="1" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -1559,27 +1577,27 @@
       <c r="K2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" ht="29.65" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -1587,27 +1605,27 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -1615,130 +1633,134 @@
       <c r="K4" s="4"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>443</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>443</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>443</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>443</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="6"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>443</v>
@@ -1747,473 +1769,481 @@
         <v>29</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>443</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1">
-        <v>443</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>443</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>443</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="15" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
         <v>443</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" ht="15" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>443</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>134</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="J15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="15" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="C16" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" ht="15" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1">
         <v>443</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="15" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
         <v>443</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C19" s="1">
         <v>443</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C20" s="1">
         <v>443</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="15" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>443</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G21" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" ht="15" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1">
         <v>443</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" ht="15" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>443</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" ht="15" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>443</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
@@ -2221,57 +2251,55 @@
       <c r="K24" s="4"/>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" ht="15" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C25" s="1">
         <v>443</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="4"/>
+        <v>46</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" ht="15" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C26" s="1">
         <v>443</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
@@ -2279,279 +2307,283 @@
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" ht="15" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>443</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K27" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" ht="15" thickBot="1">
       <c r="A28" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C28" s="1">
         <v>443</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" ht="15" thickBot="1">
       <c r="A29" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1">
         <v>443</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1">
       <c r="A30" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1">
         <v>443</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>135</v>
+        <v>48</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" ht="15" thickBot="1">
       <c r="A31" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1">
         <v>443</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" ht="15" thickBot="1">
       <c r="A32" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1">
         <v>443</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="J32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" ht="15" thickBot="1">
       <c r="A33" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C33" s="1">
         <v>443</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" ht="15" thickBot="1">
       <c r="A34" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1">
         <v>443</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" ht="15" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1">
         <v>443</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
@@ -2559,57 +2591,55 @@
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" ht="15" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C36" s="1">
         <v>443</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K36" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" ht="15" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1">
         <v>443</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2617,207 +2647,211 @@
       <c r="K37" s="4"/>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" ht="15" thickBot="1">
       <c r="A38" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C38" s="1">
         <v>443</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" ht="15" thickBot="1">
       <c r="A39" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1">
         <v>443</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" ht="15" thickBot="1">
       <c r="A40" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C40" s="1">
         <v>443</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="6"/>
-    </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1">
         <v>443</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="J41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" ht="15" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C42" s="1">
         <v>443</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12" ht="15" thickBot="1">
       <c r="A43" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1">
         <v>443</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12" ht="15" thickBot="1">
       <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C44" s="1">
         <v>443</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -2825,27 +2859,27 @@
       <c r="K44" s="4"/>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" ht="15" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C45" s="1">
         <v>443</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -2853,27 +2887,27 @@
       <c r="K45" s="4"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" ht="15" thickBot="1">
       <c r="A46" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C46" s="1">
         <v>443</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -2881,99 +2915,83 @@
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" ht="15" thickBot="1">
       <c r="A47" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1">
         <v>443</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" ht="15" thickBot="1">
       <c r="A48" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C48" s="1">
         <v>443</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K48" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" ht="15" thickBot="1">
       <c r="A49" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C49" s="1">
         <v>443</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
@@ -2981,83 +2999,99 @@
       <c r="K49" s="4"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" ht="15" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C50" s="1">
         <v>443</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" ht="15" thickBot="1">
       <c r="A51" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C51" s="1">
         <v>443</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" ht="15" thickBot="1">
       <c r="A52" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C52" s="1">
         <v>443</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
@@ -3065,27 +3099,27 @@
       <c r="K52" s="4"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" ht="15" thickBot="1">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C53" s="1">
         <v>443</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
@@ -3093,27 +3127,27 @@
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" ht="15" thickBot="1">
       <c r="A54" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>132</v>
+        <v>76</v>
       </c>
       <c r="C54" s="1">
         <v>443</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
@@ -3121,220 +3155,226 @@
       <c r="K54" s="4"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" ht="15" thickBot="1">
       <c r="A55" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C55" s="1">
         <v>443</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" thickBot="1">
       <c r="A56" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C56" s="1">
         <v>443</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" thickBot="1">
       <c r="A57" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C57" s="1">
         <v>443</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="2"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" thickBot="1">
       <c r="A58" s="3" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C58" s="1">
         <v>443</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="15" thickBot="1">
       <c r="A59" s="3" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C59" s="1">
         <v>443</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" s="2"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="6"/>
-    </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L59" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="15" thickBot="1">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C60" s="1">
         <v>443</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" s="2"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L60" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" thickBot="1">
       <c r="A61" s="3" t="s">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C61" s="1">
         <v>443</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
+      <c r="H61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L61" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="15" thickBot="1">
       <c r="A62" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1">
         <v>443</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -3343,24 +3383,24 @@
       <c r="K62" s="4"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" ht="15" thickBot="1">
       <c r="A63" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C63" s="1">
         <v>443</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3369,24 +3409,24 @@
       <c r="K63" s="4"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" ht="15" thickBot="1">
       <c r="A64" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C64" s="1">
         <v>443</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3395,24 +3435,24 @@
       <c r="K64" s="4"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" ht="15" thickBot="1">
       <c r="A65" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="1">
+        <v>443</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" s="1">
-        <v>443</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F65" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3421,24 +3461,24 @@
       <c r="K65" s="4"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" ht="15" thickBot="1">
       <c r="A66" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" s="1">
+        <v>443</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C66" s="1">
-        <v>443</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F66" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3447,24 +3487,24 @@
       <c r="K66" s="4"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" ht="15" thickBot="1">
       <c r="A67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="1">
+        <v>443</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" s="1">
-        <v>443</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -3473,24 +3513,24 @@
       <c r="K67" s="4"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" ht="15" thickBot="1">
       <c r="A68" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>98</v>
+        <v>104</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C68" s="1">
         <v>443</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -3499,24 +3539,24 @@
       <c r="K68" s="4"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12" ht="15" thickBot="1">
       <c r="A69" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1">
         <v>443</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -3525,24 +3565,24 @@
       <c r="K69" s="4"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12" ht="15" thickBot="1">
       <c r="A70" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C70" s="1">
         <v>443</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -3551,24 +3591,24 @@
       <c r="K70" s="4"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12" ht="15" thickBot="1">
       <c r="A71" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C71" s="1">
         <v>443</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3577,24 +3617,24 @@
       <c r="K71" s="4"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12" ht="15" thickBot="1">
       <c r="A72" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C72" s="1">
         <v>443</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -3603,24 +3643,24 @@
       <c r="K72" s="4"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12" ht="15" thickBot="1">
       <c r="A73" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C73" s="1">
         <v>443</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -3629,24 +3669,24 @@
       <c r="K73" s="4"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12" ht="15" thickBot="1">
       <c r="A74" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C74" s="1">
         <v>443</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -3655,24 +3695,24 @@
       <c r="K74" s="4"/>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12" ht="15" thickBot="1">
       <c r="A75" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1">
         <v>443</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -3681,24 +3721,24 @@
       <c r="K75" s="4"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12" ht="15" thickBot="1">
       <c r="A76" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C76" s="1">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -3707,24 +3747,24 @@
       <c r="K76" s="4"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12" ht="15" thickBot="1">
       <c r="A77" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C77" s="1">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -3733,24 +3773,24 @@
       <c r="K77" s="4"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" ht="15" thickBot="1">
       <c r="A78" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C78" s="1">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -3759,24 +3799,24 @@
       <c r="K78" s="4"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" ht="15" thickBot="1">
       <c r="A79" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C79" s="1">
         <v>80</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -3785,24 +3825,24 @@
       <c r="K79" s="4"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" ht="15" thickBot="1">
       <c r="A80" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="C80" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -3811,24 +3851,24 @@
       <c r="K80" s="4"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" ht="15" thickBot="1">
       <c r="A81" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C81" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -3837,102 +3877,102 @@
       <c r="K81" s="4"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" ht="15" thickBot="1">
       <c r="A82" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="3">
-        <v>443</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="1">
+        <v>80</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" ht="15" thickBot="1">
       <c r="A83" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="3">
-        <v>443</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="1">
+        <v>443</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" thickBot="1">
       <c r="A84" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C84" s="3">
-        <v>443</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C84" s="1">
+        <v>443</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" thickBot="1">
       <c r="A85" s="3" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C85" s="3">
         <v>443</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -3941,31 +3981,109 @@
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:12" ht="15" thickBot="1">
       <c r="A86" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="C86" s="3">
         <v>443</v>
       </c>
-      <c r="D86" s="12" t="s">
-        <v>124</v>
+      <c r="D86" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="14"/>
+        <v>140</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" ht="15" thickBot="1">
+      <c r="A87" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="3">
+        <v>443</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" ht="15" thickBot="1">
+      <c r="A88" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C88" s="3">
+        <v>443</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" ht="15" thickBot="1">
+      <c r="A89" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" s="3">
+        <v>443</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3984,143 +4102,143 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
-    <col min="1" max="1" width="33.08984375" customWidth="1"/>
-    <col min="2" max="2" width="55.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.453125" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="16" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickBot="1">
+      <c r="A4" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="C4" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>140</v>
-      </c>
       <c r="C5" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="17" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="18" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickBot="1">
       <c r="A8" s="17" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="18" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="17" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="18" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="17" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23615"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36DF745B-A2C8-45D5-B986-875C31357090}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A25771BB-9F7C-4D0B-B135-E46B6F1AB693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="27250" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender URLs" sheetId="1" r:id="rId1"/>
     <sheet name="Security Center URLs" sheetId="2" r:id="rId2"/>
+    <sheet name="Microsoft Defender Processes" sheetId="4" r:id="rId3"/>
+    <sheet name="Change Log" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="208">
   <si>
     <t>Service</t>
   </si>
@@ -332,7 +334,7 @@
     <t>MMA for Win 7/8.1/2008R2/2012R2/2016</t>
   </si>
   <si>
-    <t>Required for Windows 7/8.1/Server 2016 and below</t>
+    <t>Refer to steps at https://aka.ms/mde_network_requirements to eliminate wildcards (*)</t>
   </si>
   <si>
     <t>*.oms.opinsights.azure.com</t>
@@ -504,13 +506,170 @@
   </si>
   <si>
     <t>https://static2.sharepointonline.com</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Windows 10 and Windows Server 2019</t>
+  </si>
+  <si>
+    <t>MpCmdRun.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Windows Defender</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Antivirus command-line utility</t>
+  </si>
+  <si>
+    <t>MpDlpCmd.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Endpoint DLP command-line utility</t>
+  </si>
+  <si>
+    <t>MsMpEng.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Antivirus service executable</t>
+  </si>
+  <si>
+    <t>ConfigSecurityPolicy.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Security Client Policy Configuration Tool</t>
+  </si>
+  <si>
+    <t>NisSrv.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Antivirus Network Realtime Inspection</t>
+  </si>
+  <si>
+    <t>MsSense.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Windows Defender Advanced Threat Protection</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Enpoint service executable</t>
+  </si>
+  <si>
+    <t>SenseCnCProxy.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint communication module</t>
+  </si>
+  <si>
+    <t>SenseIR.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint Sense IR module</t>
+  </si>
+  <si>
+    <t>SenseCE.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Windows Defender Advanced Threat Protection\Classification</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint Sense CE module</t>
+  </si>
+  <si>
+    <t>SenseSampleUploader.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint Sample Upload module</t>
+  </si>
+  <si>
+    <t>Windows 8.1 and Windows Server 2016</t>
+  </si>
+  <si>
+    <t>MonitoringHost.exe</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Microsoft Monitoring Agent\Agent</t>
+  </si>
+  <si>
+    <t>Microsoft Monitoring Agent Service Host Process</t>
+  </si>
+  <si>
+    <t>HealthService.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Monitoring Agent Service</t>
+  </si>
+  <si>
+    <t>TestCloudConnection.exe</t>
+  </si>
+  <si>
+    <t>Microsoft Monitoring Agent Cloud Connection Test utility</t>
+  </si>
+  <si>
+    <t>Windows 7 SP1, Windows Server 2012 R2 and Windows Server 2008 R2</t>
+  </si>
+  <si>
+    <t>C:\Program Files\Microsoft Security Client</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Antivirus command-line utility (SCEP)</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Antivirus service executable (SCEP)</t>
+  </si>
+  <si>
+    <t>Microsoft Security Client Policy Configuration Tool (SCEP)</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Antivirus Network Realtime Inspection (SCEP)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Note 2</t>
+  </si>
+  <si>
+    <t>The above processes are exclusively for Microsoft Defender for Endpoint for Windows platforms, including down-level OS. This list does not account for any other Windows communications requirements. For further information on managing Windows connections, please consult the following article:</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/windows/privacy/manage-connections-from-windows-operating-system-components-to-microsoft-services</t>
+  </si>
+  <si>
+    <t>Although this list will continue to be updated, Microsoft cannot provide any guarantees on it being up-to-date with the latest product or OS changes. Customers should use this list as a baseline and conduct their testing before using it directly in production.</t>
+  </si>
+  <si>
+    <t>Change Log</t>
+  </si>
+  <si>
+    <t>Microsoft Defender Processes tab added.
+Comment updated for removing MMA wildcard (*) requirement</t>
+  </si>
+  <si>
+    <t>*.vortex-win.data.microsoft.com and Windows 10 version comments updated.
+Security Center URLs Tab Added.
+Windows Push Notifications Service (WNS) URLs added:
+*.notify.windows.com
+*.wns.windows.com
+login.microsoftonline.com
+login.live.com</t>
+  </si>
+  <si>
+    <t>Name change MDATP to Microsoft Defender for Endpoint</t>
+  </si>
+  <si>
+    <t>File Created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,8 +692,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,8 +749,20 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9E5ECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -645,11 +853,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -705,11 +1012,187 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1175,23 +1658,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L89" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L89" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
   <autoFilter ref="A1:L89" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{3727FA75-C616-4E13-B0F2-EE59FEB79CEC}" name="Port" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{B769FED4-D11B-43E7-9A4D-0A0AF30EE0A3}" name="Endpoint/URL" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{881F229D-DA2F-4637-BA75-7542C7F33E85}" name="Endpoint/URL Description " dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{EFD00EB6-E110-488B-A765-B5F99B3D4734}" name="Geography" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{447A404E-0460-455B-B761-B654611B7186}" name="Windows 10 / Server 2019" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{687F7C23-40BC-4E84-A494-FA96B63BF85A}" name="Windows 7 / 8.1" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{832A1CFD-EE4E-4E73-81E5-29933609B600}" name="Windows Server 2008 R2 / 2012 R2 / 2016" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{BF859D46-E59D-419F-9CB5-5EB793E0D088}" name="Mac" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{99915AE0-D0C1-4BAC-8C0D-49D2922DF023}" name="Linux" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{5CB77234-CA6E-430E-9D2B-112BCFF4925C}" name="Comments" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{3727FA75-C616-4E13-B0F2-EE59FEB79CEC}" name="Port" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{B769FED4-D11B-43E7-9A4D-0A0AF30EE0A3}" name="Endpoint/URL" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{881F229D-DA2F-4637-BA75-7542C7F33E85}" name="Endpoint/URL Description " dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{EFD00EB6-E110-488B-A765-B5F99B3D4734}" name="Geography" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{447A404E-0460-455B-B761-B654611B7186}" name="Windows 10 / Server 2019" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{687F7C23-40BC-4E84-A494-FA96B63BF85A}" name="Windows 7 / 8.1" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{832A1CFD-EE4E-4E73-81E5-29933609B600}" name="Windows Server 2008 R2 / 2012 R2 / 2016" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{BF859D46-E59D-419F-9CB5-5EB793E0D088}" name="Mac" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{99915AE0-D0C1-4BAC-8C0D-49D2922DF023}" name="Linux" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{5CB77234-CA6E-430E-9D2B-112BCFF4925C}" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{81B3AA5D-AC36-4DEE-9608-58BD98C1C3C8}" name="Table2" displayName="Table2" ref="A2:C22" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <autoFilter ref="A2:C22" xr:uid="{D58F6B4D-E973-409A-8555-5A830C7EADEE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FFCAE143-5624-42E8-8115-E0BB882E0345}" name="Process" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{03B42FD6-6401-4C44-A54C-9EC48FD87610}" name="Path" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DD76DCDD-C649-4E75-AC5B-B8DD5478B9F2}" name="Comment" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1494,8 +1989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
   <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
@@ -1508,7 +2003,7 @@
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="72.42578125" customWidth="1"/>
+    <col min="12" max="12" width="74.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1">
@@ -1549,7 +2044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39.6" customHeight="1" thickBot="1">
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -2051,7 +2546,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="6" t="s">
+      <c r="L18" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2391,7 +2886,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2731,7 +3226,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="6" t="s">
+      <c r="L40" s="21" t="s">
         <v>49</v>
       </c>
     </row>
@@ -4246,6 +4741,413 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F9953B-B92C-42A3-9F25-DC21827DF7F4}">
+  <dimension ref="A2:C33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.65"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" customWidth="1"/>
+    <col min="3" max="3" width="65.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15" thickBot="1">
+      <c r="A2" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickBot="1">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1">
+      <c r="A13" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="27"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" s="36"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
+      <c r="C31" s="36"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="44"/>
+      <c r="C32" s="37" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="146.1" thickBot="1">
+      <c r="A33" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A32:B32"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B33" r:id="rId1" xr:uid="{BD6DEC5C-709B-4052-963E-E0C41B839F9B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662FD019-36CD-4E2F-93B4-E0CB01233988}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.65"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="74.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29.1">
+      <c r="A2" s="42">
+        <v>44229</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="104.65" customHeight="1">
+      <c r="A3" s="42">
+        <v>44181</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="42">
+        <v>44151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="42">
+        <v>44021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>

--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A25771BB-9F7C-4D0B-B135-E46B6F1AB693}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{177469DC-A90D-47BF-875D-B35EEC762509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27250" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="27250" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="3" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender URLs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="211">
   <si>
     <t>Service</t>
   </si>
@@ -382,10 +382,16 @@
     <t>MU (ADL)</t>
   </si>
   <si>
+    <t>*download.windowsupdate.com</t>
+  </si>
+  <si>
+    <t>ADL - Alternate location for Microsoft Defender Antivirus Security intelligence updates</t>
+  </si>
+  <si>
     <t>*.download.microsoft.com</t>
   </si>
   <si>
-    <t>ADL - Alternate location for Microsoft Defender Antivirus Security intelligence updates</t>
+    <t>fe3cr.delivery.mp.microsoft.com/ClientWebService/client.asmx</t>
   </si>
   <si>
     <t>Malware Submission</t>
@@ -644,6 +650,11 @@
   </si>
   <si>
     <t>Change Log</t>
+  </si>
+  <si>
+    <t>Alternate location for Microsoft Defender Antivirus Security intelligence updates added:
+*download.windowsupdate.com
+ fe3cr.delivery.mp.microsoft.com/ClientWebService/client.asmx</t>
   </si>
   <si>
     <t>Microsoft Defender Processes tab added.
@@ -956,7 +967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1080,6 +1091,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1658,8 +1672,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L89" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="A1:L89" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L91" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
+  <autoFilter ref="A1:L91" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="16"/>
@@ -1987,17 +2001,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
@@ -4038,20 +4052,20 @@
       <c r="A69" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="1">
+        <v>443</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C69" s="1">
-        <v>443</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -4065,19 +4079,19 @@
         <v>104</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C70" s="1">
         <v>443</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -4091,19 +4105,19 @@
         <v>104</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C71" s="1">
         <v>443</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4117,19 +4131,19 @@
         <v>104</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C72" s="1">
         <v>443</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4143,19 +4157,19 @@
         <v>104</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1">
         <v>443</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -4169,19 +4183,19 @@
         <v>104</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C74" s="1">
         <v>443</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -4195,19 +4209,19 @@
         <v>104</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C75" s="1">
         <v>443</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -4221,19 +4235,19 @@
         <v>104</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C76" s="1">
         <v>443</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>122</v>
+        <v>69</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -4247,19 +4261,19 @@
         <v>104</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C77" s="1">
         <v>443</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -4273,19 +4287,19 @@
         <v>104</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" s="1">
         <v>443</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -4299,19 +4313,19 @@
         <v>104</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C79" s="1">
+        <v>443</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C79" s="1">
-        <v>80</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -4325,19 +4339,19 @@
         <v>104</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="1">
+        <v>443</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C80" s="1">
-        <v>80</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -4351,7 +4365,7 @@
         <v>104</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C81" s="1">
         <v>80</v>
@@ -4377,7 +4391,7 @@
         <v>104</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -4403,16 +4417,16 @@
         <v>104</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C83" s="1">
+        <v>80</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="1">
-        <v>443</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E83" s="2" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>16</v>
@@ -4429,16 +4443,16 @@
         <v>104</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1">
-        <v>443</v>
+        <v>80</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>16</v>
@@ -4454,69 +4468,69 @@
       <c r="A85" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="1">
+        <v>443</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C85" s="3">
-        <v>443</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F85" s="3" t="s">
+      <c r="E85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" spans="1:12" ht="15" thickBot="1">
       <c r="A86" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="1">
+        <v>443</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C86" s="3">
-        <v>443</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" spans="1:12" ht="15" thickBot="1">
       <c r="A87" s="3" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="3">
+        <v>443</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="C87" s="3">
-        <v>443</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>16</v>
@@ -4530,19 +4544,19 @@
     </row>
     <row r="88" spans="1:12" ht="15" thickBot="1">
       <c r="A88" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C88" s="3">
         <v>443</v>
       </c>
       <c r="D88" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E88" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>16</v>
@@ -4556,29 +4570,81 @@
     </row>
     <row r="89" spans="1:12" ht="15" thickBot="1">
       <c r="A89" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C89" s="3">
         <v>443</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1">
+      <c r="A90" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="3">
+        <v>443</v>
+      </c>
+      <c r="D90" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F89" s="12" t="s">
+      <c r="E90" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="14"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" ht="15" thickBot="1">
+      <c r="A91" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="3">
+        <v>443</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4609,10 +4675,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1">
@@ -4620,10 +4686,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
@@ -4634,7 +4700,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1">
@@ -4642,10 +4708,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
@@ -4653,10 +4719,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
@@ -4664,10 +4730,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
@@ -4675,10 +4741,10 @@
         <v>12</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1">
@@ -4686,10 +4752,10 @@
         <v>12</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
@@ -4697,10 +4763,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
@@ -4708,10 +4774,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1">
@@ -4719,10 +4785,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1">
@@ -4730,10 +4796,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4758,298 +4824,298 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15" thickBot="1">
       <c r="A2" s="22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1">
       <c r="A3" s="25"/>
       <c r="B3" s="26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>162</v>
-      </c>
       <c r="C5" s="29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="29" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>173</v>
-      </c>
       <c r="C10" s="30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="29" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="30" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1">
       <c r="A13" s="31" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>186</v>
-      </c>
       <c r="C16" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="33" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="34"/>
       <c r="B22" s="26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B24" s="29" t="s">
-        <v>186</v>
-      </c>
       <c r="C24" s="29" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5059,23 +5125,23 @@
       <c r="C31" s="36"/>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1">
-      <c r="A32" s="43" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="44"/>
+      <c r="A32" s="44" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="45"/>
       <c r="C32" s="37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="146.1" thickBot="1">
       <c r="A33" s="38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5094,10 +5160,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662FD019-36CD-4E2F-93B4-E0CB01233988}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65"/>
@@ -5108,43 +5174,52 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="29.1">
-      <c r="A2" s="42">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="44.65" customHeight="1">
+      <c r="A2" s="43">
+        <v>44230</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="29.1">
+      <c r="A3" s="42">
         <v>44229</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="104.65" customHeight="1">
-      <c r="A3" s="42">
+      <c r="B3" s="19" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="104.65" customHeight="1">
+      <c r="A4" s="42">
         <v>44181</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="42">
-        <v>44151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>206</v>
+      <c r="B4" s="41" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="42">
+        <v>44151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="42">
         <v>44021</v>
       </c>
-      <c r="B5" t="s">
-        <v>207</v>
+      <c r="B6" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{177469DC-A90D-47BF-875D-B35EEC762509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="760" documentId="8_{177469DC-A90D-47BF-875D-B35EEC762509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94CA54B2-1F22-4A59-A6D9-F16E2DBADF28}"/>
   <bookViews>
-    <workbookView xWindow="27250" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="3" activeTab="3" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender URLs" sheetId="1" r:id="rId1"/>
-    <sheet name="Security Center URLs" sheetId="2" r:id="rId2"/>
-    <sheet name="Microsoft Defender Processes" sheetId="4" r:id="rId3"/>
-    <sheet name="Change Log" sheetId="3" r:id="rId4"/>
+    <sheet name="Microsoft Defender URLs - USGov" sheetId="10" r:id="rId2"/>
+    <sheet name="Security Center URLs" sheetId="7" r:id="rId3"/>
+    <sheet name="Security Center URLs - US Gov" sheetId="8" r:id="rId4"/>
+    <sheet name="Microsoft Defender Processes" sheetId="4" r:id="rId5"/>
+    <sheet name="Change Log" sheetId="9" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="255">
   <si>
     <t>Service</t>
   </si>
@@ -208,9 +210,6 @@
     <t>wseu1northprod.blob.core.windows.net</t>
   </si>
   <si>
-    <t>Microsoft Defender for Endpoint Malware Sample Submission Storage</t>
-  </si>
-  <si>
     <t>wseu1westprod.blob.core.windows.net</t>
   </si>
   <si>
@@ -400,24 +399,6 @@
     <t>Upload location for files submitted to Microsoft via the Submission form or automatic sample submission</t>
   </si>
   <si>
-    <t>ussas1eastprod.blob.core.windows.net</t>
-  </si>
-  <si>
-    <t>ASIA</t>
-  </si>
-  <si>
-    <t>ussas1southeastprod.blob.core.windows.net</t>
-  </si>
-  <si>
-    <t>ussau1eastprod.blob.core.windows.net</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>ussau1southeastprod.blob.core.windows.net</t>
-  </si>
-  <si>
     <t>CRL</t>
   </si>
   <si>
@@ -490,18 +471,9 @@
     <t>https://*.microsoftonline-p.com</t>
   </si>
   <si>
-    <t>https://*.securitycenter.windows.com</t>
-  </si>
-  <si>
-    <t>https://automatediracs-eus-prd.securitycenter.windows.com</t>
-  </si>
-  <si>
     <t>https://login.microsoftonline.com</t>
   </si>
   <si>
-    <t>https://login.windows.net</t>
-  </si>
-  <si>
     <t>https://onboardingpackagescusprd.blob.core.windows.net</t>
   </si>
   <si>
@@ -641,9 +613,6 @@
   </si>
   <si>
     <t>The above processes are exclusively for Microsoft Defender for Endpoint for Windows platforms, including down-level OS. This list does not account for any other Windows communications requirements. For further information on managing Windows connections, please consult the following article:</t>
-  </si>
-  <si>
-    <t>https://docs.microsoft.com/en-us/windows/privacy/manage-connections-from-windows-operating-system-components-to-microsoft-services</t>
   </si>
   <si>
     <t>Although this list will continue to be updated, Microsoft cannot provide any guarantees on it being up-to-date with the latest product or OS changes. Customers should use this list as a baseline and conduct their testing before using it directly in production.</t>
@@ -675,12 +644,179 @@
   <si>
     <t>File Created</t>
   </si>
+  <si>
+    <t>https://docs.microsoft.com/windows/privacy/manage-connections-from-windows-operating-system-components-to-microsoft-services</t>
+  </si>
+  <si>
+    <t>US Gov</t>
+  </si>
+  <si>
+    <t>*.ods.opinsights.azure.us</t>
+  </si>
+  <si>
+    <t>*.oms.opinsights.azure.us</t>
+  </si>
+  <si>
+    <t>*.azure-automation.us</t>
+  </si>
+  <si>
+    <t>*.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>unitedstates4.x.cp.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>us4-v20.events.data.microsoft.com</t>
+  </si>
+  <si>
+    <t>ussusg1virginiaff4.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusg2virginiaff4.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusg1texasff4.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusg2texasff4.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>winatp-gw-usmt.microsoft.com</t>
+  </si>
+  <si>
+    <t>winatp-gw-usmv.microsoft.com</t>
+  </si>
+  <si>
+    <t>automatedirstrfmusmt.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>automatedirstrfmusmv.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>unitedstates1.x.cp.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>ussusg1texasff0.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusg2texasff0.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusg1virginiaff0.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusg2virginiaff0.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>winatp-gw-usgt.microsoft.com</t>
+  </si>
+  <si>
+    <t>winatp-gw-usgv.microsoft.com</t>
+  </si>
+  <si>
+    <t>automatedirstrffusgt.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>automatedirstrffusgv.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusd1centralff5.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusd2centralff5.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusd1eastff5.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>ussusd2eastff5.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>unitedstates1.ss.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>unitedstates2.ss.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>unitedstates4.ss.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>unitedstates4.cp.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>unitedstates1.cp.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>unitedstates2.cp.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>GCC High</t>
+  </si>
+  <si>
+    <t>DoD</t>
+  </si>
+  <si>
+    <t>https://login.microsoftonline.us</t>
+  </si>
+  <si>
+    <t>https://gcc.securitycenter.microsoft.us</t>
+  </si>
+  <si>
+    <t>https://onboardingpckgsusmvprd.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>https://onboardingpckgsusgvprd.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint GCC</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint GCC High</t>
+  </si>
+  <si>
+    <t>Microsoft Defender for Endpoint DoD</t>
+  </si>
+  <si>
+    <t>https://securitycenter.microsoft.us</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Added US Gov URLs
+Updated the malware submission URLs for US
+Removed the malware submission URLs for Asia &amp; AUS</t>
+  </si>
+  <si>
+    <t>wsusg1virginiaff4.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>wsusg1texasff4.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>wsusg1virginiaff0.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>wsusg1texasff0.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>wsusd1centralff5.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>wsusd1eastff5.blob.core.usgovcloudapi.net</t>
+  </si>
+  <si>
+    <t>unitedstates2.x.cp.wd.microsoft.us</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,14 +835,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -965,9 +1093,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1002,33 +1130,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1042,7 +1148,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1075,37 +1181,187 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="mm/dd/yyyy"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1186,13 +1442,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -1206,6 +1455,415 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1470,6 +2128,426 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="medium">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="medium">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1582,10 +2660,34 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1622,6 +2724,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1672,35 +2781,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L91" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowBorderDxfId="18" tableBorderDxfId="19">
-  <autoFilter ref="A1:L91" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F8156C00-6841-49FC-8940-1CC8E4FA091A}" name="Table1" displayName="Table1" ref="A1:L101" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+  <autoFilter ref="A1:L101" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{3727FA75-C616-4E13-B0F2-EE59FEB79CEC}" name="Port" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{B769FED4-D11B-43E7-9A4D-0A0AF30EE0A3}" name="Endpoint/URL" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{881F229D-DA2F-4637-BA75-7542C7F33E85}" name="Endpoint/URL Description " dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{EFD00EB6-E110-488B-A765-B5F99B3D4734}" name="Geography" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{447A404E-0460-455B-B761-B654611B7186}" name="Windows 10 / Server 2019" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{687F7C23-40BC-4E84-A494-FA96B63BF85A}" name="Windows 7 / 8.1" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{832A1CFD-EE4E-4E73-81E5-29933609B600}" name="Windows Server 2008 R2 / 2012 R2 / 2016" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{BF859D46-E59D-419F-9CB5-5EB793E0D088}" name="Mac" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{99915AE0-D0C1-4BAC-8C0D-49D2922DF023}" name="Linux" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{5CB77234-CA6E-430E-9D2B-112BCFF4925C}" name="Comments" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{882592CC-0145-4420-A2D3-07EE0BF3C08D}" name="Service" dataDxfId="55"/>
+    <tableColumn id="13" xr3:uid="{CC9B0E0F-048B-4FBA-BC9D-03B3518B05C1}" name="Geography" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{C21D2D8F-2E72-4977-975A-417433935A6A}" name="Category" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{3727FA75-C616-4E13-B0F2-EE59FEB79CEC}" name="Port" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{B769FED4-D11B-43E7-9A4D-0A0AF30EE0A3}" name="Endpoint/URL" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{881F229D-DA2F-4637-BA75-7542C7F33E85}" name="Endpoint/URL Description " dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{447A404E-0460-455B-B761-B654611B7186}" name="Windows 10 / Server 2019" dataDxfId="49"/>
+    <tableColumn id="8" xr3:uid="{687F7C23-40BC-4E84-A494-FA96B63BF85A}" name="Windows 7 / 8.1" dataDxfId="48"/>
+    <tableColumn id="9" xr3:uid="{832A1CFD-EE4E-4E73-81E5-29933609B600}" name="Windows Server 2008 R2 / 2012 R2 / 2016" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{BF859D46-E59D-419F-9CB5-5EB793E0D088}" name="Mac" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{99915AE0-D0C1-4BAC-8C0D-49D2922DF023}" name="Linux" dataDxfId="45"/>
+    <tableColumn id="12" xr3:uid="{5CB77234-CA6E-430E-9D2B-112BCFF4925C}" name="Comments" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{81B3AA5D-AC36-4DEE-9608-58BD98C1C3C8}" name="Table2" displayName="Table2" ref="A2:C22" totalsRowShown="0" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{05DB155F-4558-44FA-B70D-B395FFB8B8FD}" name="Table18" displayName="Table18" ref="A1:L89" totalsRowShown="0" headerRowDxfId="43" dataDxfId="41" headerRowBorderDxfId="42" tableBorderDxfId="40">
+  <autoFilter ref="A1:L89" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{A3F6F6D0-E972-4351-B74B-9F0E4AAA3139}" name="Service" dataDxfId="39"/>
+    <tableColumn id="13" xr3:uid="{D324B5A9-76A6-4E32-8865-4C7BAA9810CF}" name="Geography" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1399D9A4-0851-456E-9D7F-6E15E645AFEB}" name="Category" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{3BC610A8-3030-4685-B431-8D3F3239F7E4}" name="Port" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{01329C8E-AA1B-4AC7-928F-FCFF7A0A08B4}" name="Endpoint/URL" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{2F63BAD3-2D9B-4066-A678-0F544F51EC3B}" name="Endpoint/URL Description " dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{7B582E92-E35E-47B5-8874-E7CD195FE595}" name="Windows 10 / Server 2019" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{B16ED59A-FF6D-4940-9377-BE2938153EF9}" name="Windows 7 / 8.1" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{D4B2E672-A407-48D7-AA89-6A0CF8B19F20}" name="Windows Server 2008 R2 / 2012 R2 / 2016" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{9E9BDD73-5F3F-4432-9AC0-84206B1F1088}" name="Mac" dataDxfId="30"/>
+    <tableColumn id="11" xr3:uid="{FDD7410B-8571-4EB9-9790-04E8DCFBBC4E}" name="Linux" dataDxfId="29"/>
+    <tableColumn id="12" xr3:uid="{A390EC0C-560B-4896-811F-64291086CC53}" name="Comments" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DC0BA99C-7942-493B-A16E-7BCA3FD356EB}" name="Table134" displayName="Table134" ref="A1:D9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+  <autoFilter ref="A1:D9" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{2F998496-6920-4300-B65F-6FC52C1356FF}" name="Service" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{4275CC04-A1B8-4A28-B2E3-9F219326AC9A}" name="Geography" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{69F23EBD-7D5A-4DE7-9E1C-B3DC1F201BC3}" name="URL" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{6A165996-6EA1-4B9A-9CC2-60AB9DAD3BE8}" name="Comment" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FFB4246C-C996-4840-BC5A-3243E59DEC02}" name="Table1345" displayName="Table1345" ref="A1:D15" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
+  <autoFilter ref="A1:D15" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{52E1ACD0-BBF5-4953-B184-03EFE510D571}" name="Service" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{374BC92A-98DF-449C-A9A3-4AA0C30E07AF}" name="Geography" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{7A709E03-F5C0-4EDB-BA20-45A24C23433D}" name="URL" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{23146BEF-298C-431E-8479-A13929B0BF5F}" name="Comment" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{81B3AA5D-AC36-4DEE-9608-58BD98C1C3C8}" name="Table2" displayName="Table2" ref="A2:C22" totalsRowShown="0" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A2:C22" xr:uid="{D58F6B4D-E973-409A-8555-5A830C7EADEE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FFCAE143-5624-42E8-8115-E0BB882E0345}" name="Process" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{03B42FD6-6401-4C44-A54C-9EC48FD87610}" name="Path" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{DD76DCDD-C649-4E75-AC5B-B8DD5478B9F2}" name="Comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FFCAE143-5624-42E8-8115-E0BB882E0345}" name="Process" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{03B42FD6-6401-4C44-A54C-9EC48FD87610}" name="Path" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{DD76DCDD-C649-4E75-AC5B-B8DD5478B9F2}" name="Comment" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A69615E2-2788-4D0C-B5B5-D86E77C7D2B1}" name="Table1347" displayName="Table1347" ref="A1:B7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="2">
+  <autoFilter ref="A1:B7" xr:uid="{4FDF0758-C012-46C9-AF2F-302D95364EAF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{E78E6768-D9A0-4300-9359-9B61808DD00D}" name="Date" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0481B160-FE89-400F-B4BE-59B3C0D444E1}" name="Change Log" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2001,43 +3168,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEBA6312-3E6E-47E3-80AD-46C461BA45F7}">
-  <dimension ref="A1:L91"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="123" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="74.7109375" customWidth="1"/>
+    <col min="12" max="12" width="80.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>6</v>
@@ -2058,24 +3223,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>80</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2086,24 +3251,24 @@
       <c r="K2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="29.65" thickBot="1">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>80</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>17</v>
@@ -2114,24 +3279,24 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>80</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>17</v>
@@ -2142,24 +3307,24 @@
       <c r="K4" s="4"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1">
-        <v>443</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1">
+        <v>443</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>17</v>
@@ -2174,24 +3339,24 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1">
-        <v>443</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1">
+        <v>443</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>17</v>
@@ -2204,24 +3369,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="1">
-        <v>443</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>443</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>17</v>
@@ -2234,24 +3399,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
-        <v>443</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1">
+        <v>443</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>17</v>
@@ -2264,24 +3429,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
-        <v>443</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1">
+        <v>443</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>17</v>
@@ -2294,24 +3459,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1">
-        <v>443</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1">
+        <v>443</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>17</v>
@@ -2324,24 +3489,24 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="1">
-        <v>443</v>
-      </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1">
+        <v>443</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -2354,24 +3519,24 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="1">
-        <v>443</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1">
+        <v>443</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2384,24 +3549,24 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1">
-        <v>443</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1">
+        <v>443</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2414,24 +3579,24 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1">
-        <v>443</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1">
+        <v>443</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2444,24 +3609,24 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1">
-        <v>443</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1">
+        <v>443</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2474,24 +3639,24 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>80</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2504,152 +3669,152 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1">
-        <v>443</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
+      <c r="B17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1">
+        <v>443</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1">
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1">
-        <v>443</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="1">
+        <v>443</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1">
+      <c r="L18" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1">
-        <v>443</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="1">
+        <v>443</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="I19" s="4"/>
-      <c r="J19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1">
-        <v>443</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1">
+      <c r="B20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="1">
+        <v>443</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1">
-        <v>443</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="1">
+        <v>443</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
@@ -2660,152 +3825,158 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="1">
-        <v>443</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="1">
+        <v>443</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1">
+        <v>443</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="1">
+        <v>443</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="1">
-        <v>443</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1">
+        <v>443</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1">
-        <v>443</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1">
-      <c r="A25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1">
-        <v>443</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="H25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="1">
-        <v>443</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="B26" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1">
+        <v>443</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>17</v>
@@ -2816,24 +3987,24 @@
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1">
-        <v>443</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>46</v>
+      <c r="B27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="1">
+        <v>443</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>17</v>
@@ -2844,26 +4015,28 @@
       <c r="K27" s="4"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1">
-        <v>443</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="4"/>
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="1">
+        <v>443</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
@@ -2874,54 +4047,56 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1">
-        <v>443</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>65</v>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="1">
+        <v>443</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1">
+      <c r="J29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="1">
-        <v>443</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>65</v>
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1">
+        <v>443</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>17</v>
@@ -2936,24 +4111,24 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="1">
-        <v>443</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1">
+        <v>443</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>17</v>
@@ -2968,102 +4143,86 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="1">
-        <v>443</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="B32" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="1">
+        <v>443</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="1">
-        <v>443</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>65</v>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="1">
+        <v>443</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="1">
-        <v>443</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>65</v>
+      <c r="B34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1">
+        <v>443</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
       <c r="J34" s="4" t="s">
         <v>17</v>
       </c>
@@ -3072,108 +4231,120 @@
       </c>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1">
-        <v>443</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="1">
+        <v>443</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="1">
-        <v>443</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" s="3" t="s">
+      <c r="B36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="1">
+        <v>443</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" s="1">
-        <v>443</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>65</v>
+      <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="1">
+        <v>443</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="1">
-        <v>443</v>
-      </c>
-      <c r="D38" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>65</v>
+      <c r="D38" s="1">
+        <v>443</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>17</v>
@@ -3184,116 +4355,112 @@
       <c r="K38" s="4"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="1">
-        <v>443</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1">
+        <v>443</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1">
-        <v>443</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1">
+        <v>443</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1">
+      <c r="J40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="1">
-        <v>443</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="1">
+        <v>443</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="6"/>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1">
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C42" s="1">
-        <v>443</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>78</v>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="1">
+        <v>443</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>17</v>
@@ -3308,30 +4475,34 @@
       </c>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1">
-        <v>443</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>78</v>
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="1">
+        <v>443</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="H43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="J43" s="4" t="s">
         <v>17</v>
       </c>
@@ -3340,52 +4511,60 @@
       </c>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C44" s="1">
-        <v>443</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>78</v>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="1">
+        <v>443</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="H44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="1">
-        <v>443</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>78</v>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="1">
+        <v>443</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>17</v>
@@ -3396,24 +4575,24 @@
       <c r="K45" s="4"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="1">
-        <v>443</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>78</v>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="1">
+        <v>443</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>17</v>
@@ -3424,52 +4603,56 @@
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="1">
-        <v>443</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E47" s="3" t="s">
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="1">
+        <v>443</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="J47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="1">
-        <v>443</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E48" s="3" t="s">
+      <c r="B48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="1">
+        <v>443</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>17</v>
@@ -3480,98 +4663,88 @@
       <c r="K48" s="4"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="1">
-        <v>443</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="3" t="s">
+      <c r="B49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="1">
+        <v>443</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="1">
-        <v>443</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>78</v>
+      <c r="B50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="1">
+        <v>443</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="1">
-        <v>443</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="1">
+        <v>443</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
       <c r="J51" s="4" t="s">
         <v>17</v>
       </c>
@@ -3580,24 +4753,24 @@
       </c>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C52" s="1">
-        <v>443</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>78</v>
+      <c r="B52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="1">
+        <v>443</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>17</v>
@@ -3606,110 +4779,132 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="6"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1">
+      <c r="L52" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="1">
-        <v>443</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>78</v>
+      <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="1">
+        <v>443</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
+      <c r="J53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="1">
-        <v>443</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>78</v>
+      <c r="B54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="1">
+        <v>443</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" s="1">
-        <v>443</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>78</v>
+      <c r="B55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="1">
+        <v>443</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="1">
-        <v>443</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>78</v>
+      <c r="B56" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" s="1">
+        <v>443</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>17</v>
@@ -3720,24 +4915,24 @@
       <c r="K56" s="4"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1">
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="1">
-        <v>443</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>78</v>
+      <c r="B57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D57" s="1">
+        <v>443</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>17</v>
@@ -3748,142 +4943,144 @@
       <c r="K57" s="4"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C58" s="1">
-        <v>443</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" s="2"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1">
+      <c r="B58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="1">
+        <v>443</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="1">
-        <v>443</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="2"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="1">
+        <v>443</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1">
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="1">
-        <v>443</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="1">
+        <v>443</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1">
+      <c r="J60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C61" s="1">
-        <v>443</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>17</v>
-      </c>
+      <c r="B61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="1">
+        <v>443</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1">
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="1">
-        <v>443</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="1">
+        <v>443</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -3892,24 +5089,24 @@
       <c r="K62" s="4"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C63" s="1">
-        <v>443</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" s="1">
+        <v>443</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3918,24 +5115,24 @@
       <c r="K63" s="4"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1">
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C64" s="1">
-        <v>443</v>
-      </c>
-      <c r="D64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="D64" s="1">
+        <v>443</v>
+      </c>
       <c r="E64" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -3944,24 +5141,24 @@
       <c r="K64" s="4"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="1">
-        <v>443</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D65" s="1">
+        <v>443</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -3970,24 +5167,24 @@
       <c r="K65" s="4"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="1">
-        <v>443</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="1">
+        <v>443</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -3996,24 +5193,24 @@
       <c r="K66" s="4"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C67" s="1">
-        <v>443</v>
-      </c>
-      <c r="D67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>114</v>
       </c>
+      <c r="D67" s="1">
+        <v>443</v>
+      </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -4022,24 +5219,24 @@
       <c r="K67" s="4"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C68" s="1">
-        <v>443</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="1">
+        <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -4048,24 +5245,24 @@
       <c r="K68" s="4"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="1">
-        <v>443</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>118</v>
+        <v>103</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="1">
+        <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -4074,24 +5271,24 @@
       <c r="K69" s="4"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1">
+    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="1">
-        <v>443</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="1">
+        <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -4100,24 +5297,24 @@
       <c r="K70" s="4"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C71" s="1">
-        <v>443</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="1">
+        <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -4126,24 +5323,24 @@
       <c r="K71" s="4"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1">
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="1">
-        <v>443</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D72" s="1">
+        <v>443</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -4152,76 +5349,84 @@
       <c r="K72" s="4"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1">
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="1">
-        <v>443</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="1">
+        <v>443</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G73" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="6"/>
-    </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1">
+      <c r="L73" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="3">
+        <v>443</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G74" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="1">
-        <v>443</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1">
-      <c r="A75" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="1">
-        <v>443</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>68</v>
+      <c r="D75" s="1">
+        <v>443</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -4230,24 +5435,24 @@
       <c r="K75" s="4"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C76" s="1">
-        <v>443</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>69</v>
+      <c r="D76" s="1">
+        <v>443</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -4256,24 +5461,24 @@
       <c r="K76" s="4"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="1">
-        <v>443</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>122</v>
+      <c r="D77" s="1">
+        <v>443</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -4282,369 +5487,717 @@
       <c r="K77" s="4"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1">
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B78" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="1">
+        <v>443</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="1">
-        <v>443</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
+      <c r="J78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B79" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="1">
+        <v>443</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C79" s="1">
-        <v>443</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
+      <c r="J79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D80" s="1">
+        <v>443</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="1">
-        <v>443</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
+      <c r="J80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1">
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="1">
-        <v>80</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>129</v>
+        <v>103</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="1">
+        <v>443</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>21</v>
+        <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="4"/>
+      <c r="J81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1">
+    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C82" s="1">
-        <v>80</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>130</v>
+        <v>103</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="1">
+        <v>443</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" ht="15" thickBot="1">
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C83" s="1">
-        <v>80</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="1">
+        <v>443</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" ht="15" thickBot="1">
+    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C84" s="1">
-        <v>80</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>103</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="1">
+        <v>443</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
+      <c r="J84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" ht="15" thickBot="1">
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="1">
-        <v>443</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>134</v>
+        <v>103</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="1">
+        <v>443</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
+      <c r="J85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" ht="15" thickBot="1">
+    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C86" s="1">
-        <v>443</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="1">
+        <v>443</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>138</v>
+        <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G86" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
+      <c r="J86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K86" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1">
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D87" s="1">
+        <v>443</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="1">
+        <v>443</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="1">
+        <v>443</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="1">
+        <v>443</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K90" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D91" s="1">
+        <v>443</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D92" s="1">
+        <v>443</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K92" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="1">
+        <v>443</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D94" s="1">
+        <v>443</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D95" s="1">
+        <v>443</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" s="1">
+        <v>443</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K96" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="1">
+        <v>443</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="6"/>
+    </row>
+    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D98" s="3">
+        <v>443</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="33"/>
+      <c r="L98" s="33"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D99" s="3">
+        <v>443</v>
+      </c>
+      <c r="E99" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C87" s="3">
-        <v>443</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E87" s="3" t="s">
+      <c r="F99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="3">
+        <v>443</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" ht="15" thickBot="1">
-      <c r="A88" s="3" t="s">
+      <c r="C101" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="3">
+        <v>443</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C88" s="3">
-        <v>443</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1">
-      <c r="A89" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89" s="3">
-        <v>443</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1">
-      <c r="A90" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="3">
-        <v>443</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" ht="15" thickBot="1">
-      <c r="A91" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C91" s="3">
-        <v>443</v>
-      </c>
-      <c r="D91" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="14"/>
+      <c r="F101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="34"/>
+      <c r="L101" s="35"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4656,492 +6209,3414 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33CF86A1-6F7D-42DB-9559-2FAB96C818E2}">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC6EB50-F16F-4541-97CA-B795F8A2C8E3}">
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="80.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>80</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>80</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>443</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>443</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>443</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>443</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>443</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>443</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1">
+        <v>443</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="1">
+        <v>443</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="1">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1">
-      <c r="A4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
-      <c r="A5" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
-      <c r="A6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
-      <c r="A7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1">
-      <c r="A8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
-      <c r="A10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1">
-      <c r="A11" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1">
-      <c r="A12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="F13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1">
+        <v>443</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1">
+        <v>443</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="1">
+        <v>443</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="1">
+        <v>443</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="1">
+        <v>443</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="1">
+        <v>443</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="1">
+        <v>443</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="1">
+        <v>443</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="1">
+        <v>443</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="1">
+        <v>443</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="1">
+        <v>443</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="1">
+        <v>443</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="1">
+        <v>443</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="1">
+        <v>443</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="1">
+        <v>443</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="1">
+        <v>443</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="1">
+        <v>443</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" s="1">
+        <v>443</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D32" s="1">
+        <v>443</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D33" s="1">
+        <v>443</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="1">
+        <v>443</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="1">
+        <v>443</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D36" s="1">
+        <v>443</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="1">
+        <v>443</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="1">
+        <v>443</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D39" s="1">
+        <v>443</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="1">
+        <v>443</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="1">
+        <v>443</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="1">
+        <v>443</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="1">
+        <v>443</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="6"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="1">
+        <v>443</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="6"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D45" s="1">
+        <v>443</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="6"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="1">
+        <v>443</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="6"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="1">
+        <v>443</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D48" s="1">
+        <v>443</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="6"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="1">
+        <v>443</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L49" s="6"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="1">
+        <v>443</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D51" s="1">
+        <v>443</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L51" s="6"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="1">
+        <v>443</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" s="1">
+        <v>443</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="6"/>
+    </row>
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="1">
+        <v>443</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="6"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="1">
+        <v>443</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" s="1">
+        <v>443</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="6"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="1">
+        <v>443</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="6"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" s="1">
+        <v>443</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="6"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="1">
+        <v>443</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="6"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="1">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="1">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="1">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="1">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="1">
+        <v>443</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" s="3">
+        <v>443</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="33"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="1">
+        <v>443</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="1">
+        <v>443</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68" s="1">
+        <v>443</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D69" s="1">
+        <v>443</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D70" s="1">
+        <v>443</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D71" s="1">
+        <v>443</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="1">
+        <v>443</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D73" s="1">
+        <v>443</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="1">
+        <v>443</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="1">
+        <v>443</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D76" s="1">
+        <v>443</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="1">
+        <v>443</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D78" s="1">
+        <v>443</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="1">
+        <v>443</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D80" s="1">
+        <v>443</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="1">
+        <v>443</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="1">
+        <v>443</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D83" s="1">
+        <v>443</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="1">
+        <v>443</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K84" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="1">
+        <v>443</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="1">
+        <v>443</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="1">
+        <v>443</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="1">
+        <v>443</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="1">
+        <v>443</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9360EDB-E007-4922-88E7-23B645BDBF38}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8672B6E-A60D-4FD7-82F3-7E33BCAA66E5}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="63" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F9953B-B92C-42A3-9F25-DC21827DF7F4}">
   <dimension ref="A2:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="2" width="83.7109375" customWidth="1"/>
     <col min="3" max="3" width="65.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15" thickBot="1">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B7" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="28" t="s">
+      <c r="B8" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="B4" s="28" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="B9" s="21" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="29" t="s">
+      <c r="C9" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="29" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="30" t="s">
+      <c r="B10" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="30" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="29" t="s">
+      <c r="B11" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="29" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="30" t="s">
+      <c r="B12" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="30" t="s">
+      <c r="C12" s="22" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="29" t="s">
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B13" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C9" s="29" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="30" t="s">
+      <c r="C14" s="19"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="30" t="s">
+      <c r="B15" s="20" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="29" t="s">
+      <c r="C15" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="29" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="30" t="s">
+      <c r="B16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="30" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="B17" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" thickBot="1">
-      <c r="A13" s="31" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B26" s="24" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="26" t="s">
+      <c r="C26" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="27"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="28" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="28" t="s">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="C15" s="28" t="s">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="29" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
         <v>190</v>
       </c>
-      <c r="B16" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="29" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="30" t="s">
+    <row r="33" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="30" t="s">
+      <c r="B33" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="32" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
-      <c r="A21" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="35"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="30" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>195</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" s="36"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1">
-      <c r="C31" s="36"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1">
-      <c r="A32" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="B32" s="45"/>
-      <c r="C32" s="37" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="146.1" thickBot="1">
-      <c r="A33" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5158,73 +9633,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662FD019-36CD-4E2F-93B4-E0CB01233988}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2675D54D-96DD-4D9F-AF36-17D9C545CC56}">
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="74.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="39" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="44.65" customHeight="1">
-      <c r="A2" s="43">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38">
+        <v>44245</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38">
         <v>44230</v>
       </c>
-      <c r="B2" s="41" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="29.1">
-      <c r="A3" s="42">
+      <c r="B3" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="38">
         <v>44229</v>
       </c>
-      <c r="B3" s="19" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="104.65" customHeight="1">
-      <c r="A4" s="42">
+      <c r="B4" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="38">
         <v>44181</v>
       </c>
-      <c r="B4" s="41" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="42">
+      <c r="B5" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="38">
         <v>44151</v>
       </c>
-      <c r="B5" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="42">
+      <c r="B6" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38">
         <v>44021</v>
       </c>
-      <c r="B6" t="s">
-        <v>210</v>
+      <c r="B7" s="13" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>
--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="760" documentId="8_{177469DC-A90D-47BF-875D-B35EEC762509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{94CA54B2-1F22-4A59-A6D9-F16E2DBADF28}"/>
+  <xr:revisionPtr revIDLastSave="761" documentId="8_{177469DC-A90D-47BF-875D-B35EEC762509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B873894E-B81E-442C-B785-C30CD38BC154}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Microsoft Defender URLs" sheetId="1" r:id="rId1"/>
@@ -3172,20 +3172,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" customWidth="1"/>
+    <col min="3" max="3" width="33.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" customWidth="1"/>
+    <col min="9" max="9" width="22.1328125" customWidth="1"/>
+    <col min="12" max="12" width="80.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3307,7 +3307,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3489,7 +3489,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -3733,7 +3733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -3959,7 +3959,7 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -3987,7 +3987,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -4015,7 +4015,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -4327,7 +4327,7 @@
       </c>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -4355,7 +4355,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4383,7 @@
       <c r="K39" s="4"/>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -4547,7 +4547,7 @@
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -4575,7 +4575,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -4603,7 +4603,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -4663,7 +4663,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -4695,7 +4695,7 @@
       </c>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -4723,7 +4723,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -4753,7 +4753,7 @@
       </c>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
         <v>12</v>
       </c>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
@@ -4887,7 +4887,7 @@
       </c>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
         <v>12</v>
       </c>
@@ -4915,7 +4915,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>12</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>12</v>
       </c>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
         <v>12</v>
       </c>
@@ -5003,7 +5003,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
         <v>12</v>
       </c>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
         <v>12</v>
       </c>
@@ -5063,7 +5063,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
         <v>103</v>
       </c>
@@ -5089,7 +5089,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
         <v>103</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
         <v>103</v>
       </c>
@@ -5141,7 +5141,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
         <v>103</v>
       </c>
@@ -5167,7 +5167,7 @@
       <c r="K65" s="4"/>
       <c r="L65" s="6"/>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
         <v>103</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
@@ -5219,7 +5219,7 @@
       <c r="K67" s="4"/>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
         <v>103</v>
       </c>
@@ -5245,7 +5245,7 @@
       <c r="K68" s="4"/>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
         <v>103</v>
       </c>
@@ -5271,7 +5271,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="K70" s="4"/>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="K71" s="4"/>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
         <v>103</v>
       </c>
@@ -5349,7 +5349,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
         <v>103</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
         <v>103</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
         <v>103</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -5519,7 +5519,7 @@
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
         <v>103</v>
       </c>
@@ -5551,7 +5551,7 @@
       </c>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
         <v>103</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
         <v>103</v>
       </c>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="K82" s="4"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
         <v>103</v>
       </c>
@@ -5671,7 +5671,7 @@
       <c r="K83" s="4"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
         <v>103</v>
       </c>
@@ -5703,7 +5703,7 @@
       </c>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
         <v>103</v>
       </c>
@@ -5735,7 +5735,7 @@
       </c>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
         <v>103</v>
       </c>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
         <v>103</v>
       </c>
@@ -5799,7 +5799,7 @@
       </c>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
         <v>103</v>
       </c>
@@ -5827,7 +5827,7 @@
       <c r="K88" s="4"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="s">
         <v>103</v>
       </c>
@@ -5855,7 +5855,7 @@
       <c r="K89" s="4"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A90" s="3" t="s">
         <v>103</v>
       </c>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A91" s="3" t="s">
         <v>103</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="K91" s="4"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A92" s="3" t="s">
         <v>103</v>
       </c>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A93" s="3" t="s">
         <v>103</v>
       </c>
@@ -5975,7 +5975,7 @@
       <c r="K93" s="4"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A94" s="3" t="s">
         <v>103</v>
       </c>
@@ -6007,7 +6007,7 @@
       </c>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A95" s="3" t="s">
         <v>103</v>
       </c>
@@ -6035,7 +6035,7 @@
       <c r="K95" s="4"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A96" s="3" t="s">
         <v>103</v>
       </c>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A97" s="3" t="s">
         <v>103</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="K97" s="4"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
         <v>132</v>
       </c>
@@ -6121,7 +6121,7 @@
       <c r="K98" s="33"/>
       <c r="L98" s="33"/>
     </row>
-    <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
         <v>132</v>
       </c>
@@ -6147,7 +6147,7 @@
       <c r="K99" s="33"/>
       <c r="L99" s="33"/>
     </row>
-    <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
         <v>132</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="K100" s="33"/>
       <c r="L100" s="33"/>
     </row>
-    <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
         <v>132</v>
       </c>
@@ -6214,20 +6214,20 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
+    <col min="2" max="2" width="13.265625" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="123" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.59765625" customWidth="1"/>
+    <col min="8" max="8" width="17.86328125" customWidth="1"/>
+    <col min="9" max="9" width="22.1328125" customWidth="1"/>
+    <col min="12" max="12" width="80.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -6293,7 +6293,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -6321,7 +6321,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -6591,7 +6591,7 @@
       </c>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
@@ -6809,7 +6809,7 @@
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -6845,7 +6845,7 @@
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
@@ -6909,7 +6909,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
@@ -6937,7 +6937,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -7029,7 +7029,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
@@ -7061,7 +7061,7 @@
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
@@ -7093,7 +7093,7 @@
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
@@ -7121,7 +7121,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
@@ -7183,7 +7183,7 @@
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -7283,7 +7283,7 @@
       <c r="K34" s="4"/>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -7311,7 +7311,7 @@
       <c r="K35" s="4"/>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
@@ -7343,7 +7343,7 @@
       </c>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
@@ -7375,7 +7375,7 @@
       </c>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
@@ -7403,7 +7403,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
@@ -7435,7 +7435,7 @@
       </c>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="6"/>
     </row>
-    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="L42" s="6"/>
     </row>
-    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A43" s="3" t="s">
         <v>12</v>
       </c>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="L43" s="6"/>
     </row>
-    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="L44" s="6"/>
     </row>
-    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -7657,7 +7657,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A47" s="3" t="s">
         <v>12</v>
       </c>
@@ -7685,7 +7685,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="3" t="s">
         <v>12</v>
       </c>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A50" s="3" t="s">
         <v>12</v>
       </c>
@@ -7777,7 +7777,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="6"/>
     </row>
-    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A51" s="3" t="s">
         <v>12</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="L51" s="6"/>
     </row>
-    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="3" t="s">
         <v>12</v>
       </c>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A53" s="3" t="s">
         <v>12</v>
       </c>
@@ -7869,7 +7869,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A54" s="3" t="s">
         <v>103</v>
       </c>
@@ -7895,7 +7895,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A55" s="3" t="s">
         <v>103</v>
       </c>
@@ -7921,7 +7921,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="6"/>
     </row>
-    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A56" s="3" t="s">
         <v>103</v>
       </c>
@@ -7947,7 +7947,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="6"/>
     </row>
-    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A57" s="3" t="s">
         <v>103</v>
       </c>
@@ -7973,7 +7973,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="6"/>
     </row>
-    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A58" s="3" t="s">
         <v>103</v>
       </c>
@@ -7999,7 +7999,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="6"/>
     </row>
-    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="3" t="s">
         <v>103</v>
       </c>
@@ -8025,7 +8025,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A60" s="3" t="s">
         <v>103</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="6"/>
     </row>
-    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A61" s="3" t="s">
         <v>103</v>
       </c>
@@ -8077,7 +8077,7 @@
       <c r="K61" s="4"/>
       <c r="L61" s="6"/>
     </row>
-    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A62" s="3" t="s">
         <v>103</v>
       </c>
@@ -8103,7 +8103,7 @@
       <c r="K62" s="4"/>
       <c r="L62" s="6"/>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A63" s="3" t="s">
         <v>103</v>
       </c>
@@ -8129,7 +8129,7 @@
       <c r="K63" s="4"/>
       <c r="L63" s="6"/>
     </row>
-    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A64" s="3" t="s">
         <v>103</v>
       </c>
@@ -8155,7 +8155,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="6"/>
     </row>
-    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="3" t="s">
         <v>103</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="3" t="s">
         <v>103</v>
       </c>
@@ -8211,7 +8211,7 @@
       <c r="K66" s="4"/>
       <c r="L66" s="6"/>
     </row>
-    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A67" s="3" t="s">
         <v>103</v>
       </c>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="L67" s="6"/>
     </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A68" s="3" t="s">
         <v>103</v>
       </c>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="L68" s="6"/>
     </row>
-    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A69" s="3" t="s">
         <v>103</v>
       </c>
@@ -8303,7 +8303,7 @@
       <c r="K69" s="4"/>
       <c r="L69" s="6"/>
     </row>
-    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="3" t="s">
         <v>103</v>
       </c>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="L70" s="6"/>
     </row>
-    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A71" s="3" t="s">
         <v>103</v>
       </c>
@@ -8367,7 +8367,7 @@
       </c>
       <c r="L71" s="6"/>
     </row>
-    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="3" t="s">
         <v>103</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="6"/>
     </row>
-    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -8421,7 +8421,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="6"/>
     </row>
-    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A74" s="3" t="s">
         <v>103</v>
       </c>
@@ -8453,7 +8453,7 @@
       </c>
       <c r="L74" s="6"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="L75" s="6"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A76" s="3" t="s">
         <v>103</v>
       </c>
@@ -8513,7 +8513,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="6"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A77" s="3" t="s">
         <v>103</v>
       </c>
@@ -8545,7 +8545,7 @@
       </c>
       <c r="L77" s="6"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A78" s="3" t="s">
         <v>103</v>
       </c>
@@ -8577,7 +8577,7 @@
       </c>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A79" s="3" t="s">
         <v>103</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="K79" s="4"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="3" t="s">
         <v>103</v>
       </c>
@@ -8631,7 +8631,7 @@
       <c r="K80" s="4"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A81" s="3" t="s">
         <v>103</v>
       </c>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="3" t="s">
         <v>103</v>
       </c>
@@ -8695,7 +8695,7 @@
       </c>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A83" s="3" t="s">
         <v>103</v>
       </c>
@@ -8723,7 +8723,7 @@
       <c r="K83" s="4"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A84" s="3" t="s">
         <v>103</v>
       </c>
@@ -8755,7 +8755,7 @@
       </c>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A85" s="3" t="s">
         <v>103</v>
       </c>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A86" s="3" t="s">
         <v>103</v>
       </c>
@@ -8815,9 +8815,9 @@
       <c r="K86" s="4"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>235</v>
@@ -8841,9 +8841,9 @@
       <c r="K87" s="4"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>236</v>
@@ -8867,9 +8867,9 @@
       <c r="K88" s="4"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>237</v>
@@ -8908,15 +8908,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -8944,7 +8944,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -8958,7 +8958,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -9057,15 +9057,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.86328125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="63" customWidth="1"/>
-    <col min="4" max="4" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -9177,7 +9177,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -9205,7 +9205,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="36" t="s">
         <v>12</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="36" t="s">
         <v>12</v>
       </c>
@@ -9247,7 +9247,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="36" t="s">
         <v>12</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="36" t="s">
         <v>12</v>
       </c>
@@ -9290,14 +9290,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="83.7109375" customWidth="1"/>
-    <col min="3" max="3" width="65.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.73046875" customWidth="1"/>
+    <col min="2" max="2" width="83.73046875" customWidth="1"/>
+    <col min="3" max="3" width="65.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
         <v>150</v>
       </c>
@@ -9308,14 +9308,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
         <v>153</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
         <v>156</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="22" t="s">
         <v>158</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
         <v>160</v>
       </c>
@@ -9359,7 +9359,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
         <v>162</v>
       </c>
@@ -9370,7 +9370,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>164</v>
       </c>
@@ -9381,7 +9381,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
         <v>167</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
         <v>169</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
         <v>171</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="23" t="s">
         <v>174</v>
       </c>
@@ -9425,14 +9425,14 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>177</v>
       </c>
@@ -9443,7 +9443,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
         <v>180</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
         <v>182</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
         <v>153</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
         <v>158</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="21" t="s">
         <v>160</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="25" t="s">
         <v>162</v>
       </c>
@@ -9509,14 +9509,14 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="26"/>
       <c r="B22" s="18" t="s">
         <v>184</v>
       </c>
       <c r="C22" s="27"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>177</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="21" t="s">
         <v>180</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
         <v>182</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
         <v>153</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="22" t="s">
         <v>158</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>160</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
         <v>162</v>
       </c>
@@ -9593,13 +9593,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C30" s="28"/>
     </row>
-    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C31" s="28"/>
     </row>
-    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="40" t="s">
         <v>190</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="128.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="30" t="s">
         <v>192</v>
       </c>
@@ -9639,13 +9639,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="39" customWidth="1"/>
-    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.86328125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="85.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>246</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="38">
         <v>44245</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="38">
         <v>44230</v>
       </c>
@@ -9669,7 +9669,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="38">
         <v>44229</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="38">
         <v>44181</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="38">
         <v>44151</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="38">
         <v>44021</v>
       </c>

--- a/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
+++ b/windows/security/threat-protection/microsoft-defender-atp/downloads/mdatp-urls.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="761" documentId="8_{177469DC-A90D-47BF-875D-B35EEC762509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B873894E-B81E-442C-B785-C30CD38BC154}"/>
+  <xr:revisionPtr revIDLastSave="767" documentId="8_{177469DC-A90D-47BF-875D-B35EEC762509}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BB66EF72-E387-4315-9DEB-74233750517E}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{CD95AAE3-DB68-454B-91FC-2CAB7147FBF4}"/>
   </bookViews>
@@ -381,9 +381,6 @@
     <t>MU (ADL)</t>
   </si>
   <si>
-    <t>*download.windowsupdate.com</t>
-  </si>
-  <si>
     <t>ADL - Alternate location for Microsoft Defender Antivirus Security intelligence updates</t>
   </si>
   <si>
@@ -438,22 +435,10 @@
     <t>Reporting and Notifications</t>
   </si>
   <si>
-    <t>*smartscreen-prod.microsoft.com</t>
-  </si>
-  <si>
     <t>Used for Microsoft Defender SmartScreen reporting and notifications</t>
   </si>
   <si>
-    <t>*smartscreen.microsoft.com</t>
-  </si>
-  <si>
-    <t>*checkappexec.microsoft.com</t>
-  </si>
-  <si>
     <t>Used for Microsoft Defender SmartScreen to check application execution for trusted apps</t>
-  </si>
-  <si>
-    <t>*urs.microsoft.com</t>
   </si>
   <si>
     <t>URL</t>
@@ -810,6 +795,21 @@
   </si>
   <si>
     <t>unitedstates2.x.cp.wd.microsoft.us</t>
+  </si>
+  <si>
+    <t>*.download.windowsupdate.com</t>
+  </si>
+  <si>
+    <t>*.urs.microsoft.com</t>
+  </si>
+  <si>
+    <t>*.checkappexec.microsoft.com</t>
+  </si>
+  <si>
+    <t>*.smartscreen.microsoft.com</t>
+  </si>
+  <si>
+    <t>*.smartscreen-prod.microsoft.com</t>
   </si>
 </sst>
 </file>
@@ -5155,10 +5155,10 @@
         <v>443</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -5181,10 +5181,10 @@
         <v>443</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -5207,10 +5207,10 @@
         <v>443</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -5227,13 +5227,13 @@
         <v>16</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="1">
         <v>80</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>21</v>
@@ -5253,13 +5253,13 @@
         <v>16</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" s="1">
         <v>80</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>21</v>
@@ -5279,13 +5279,13 @@
         <v>16</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D70" s="1">
         <v>80</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>21</v>
@@ -5305,13 +5305,13 @@
         <v>16</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D71" s="1">
         <v>80</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>21</v>
@@ -5331,16 +5331,16 @@
         <v>16</v>
       </c>
       <c r="C72" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D72" s="1">
+        <v>443</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D72" s="1">
-        <v>443</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="F72" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -5357,16 +5357,16 @@
         <v>16</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D73" s="1">
+        <v>443</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D73" s="1">
-        <v>443</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>17</v>
@@ -5387,7 +5387,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D74" s="3">
         <v>443</v>
@@ -5396,7 +5396,7 @@
         <v>30</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G74" s="33" t="s">
         <v>17</v>
@@ -5495,7 +5495,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="1">
         <v>443</v>
@@ -5504,7 +5504,7 @@
         <v>80</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>17</v>
@@ -5527,7 +5527,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1">
         <v>443</v>
@@ -5536,7 +5536,7 @@
         <v>82</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>17</v>
@@ -5559,7 +5559,7 @@
         <v>77</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D80" s="1">
         <v>443</v>
@@ -5568,7 +5568,7 @@
         <v>84</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>17</v>
@@ -5591,7 +5591,7 @@
         <v>77</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1">
         <v>443</v>
@@ -5600,7 +5600,7 @@
         <v>86</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>17</v>
@@ -5623,7 +5623,7 @@
         <v>77</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1">
         <v>443</v>
@@ -5632,7 +5632,7 @@
         <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>17</v>
@@ -5651,7 +5651,7 @@
         <v>77</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D83" s="1">
         <v>443</v>
@@ -5660,7 +5660,7 @@
         <v>92</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>17</v>
@@ -5679,7 +5679,7 @@
         <v>77</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1">
         <v>443</v>
@@ -5688,7 +5688,7 @@
         <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>17</v>
@@ -5711,7 +5711,7 @@
         <v>77</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D85" s="1">
         <v>443</v>
@@ -5720,7 +5720,7 @@
         <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>17</v>
@@ -5743,7 +5743,7 @@
         <v>77</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="1">
         <v>443</v>
@@ -5752,7 +5752,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>17</v>
@@ -5775,7 +5775,7 @@
         <v>77</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D87" s="1">
         <v>443</v>
@@ -5784,7 +5784,7 @@
         <v>87</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>17</v>
@@ -5807,7 +5807,7 @@
         <v>77</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D88" s="1">
         <v>443</v>
@@ -5816,7 +5816,7 @@
         <v>91</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>17</v>
@@ -5835,7 +5835,7 @@
         <v>77</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" s="1">
         <v>443</v>
@@ -5844,7 +5844,7 @@
         <v>93</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>17</v>
@@ -5863,7 +5863,7 @@
         <v>46</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D90" s="1">
         <v>443</v>
@@ -5872,7 +5872,7 @@
         <v>51</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>17</v>
@@ -5895,7 +5895,7 @@
         <v>46</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D91" s="1">
         <v>443</v>
@@ -5904,7 +5904,7 @@
         <v>57</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>17</v>
@@ -5923,7 +5923,7 @@
         <v>46</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D92" s="1">
         <v>443</v>
@@ -5932,7 +5932,7 @@
         <v>53</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>17</v>
@@ -5955,7 +5955,7 @@
         <v>46</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D93" s="1">
         <v>443</v>
@@ -5964,7 +5964,7 @@
         <v>58</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>17</v>
@@ -5983,7 +5983,7 @@
         <v>64</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94" s="1">
         <v>443</v>
@@ -5992,7 +5992,7 @@
         <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>17</v>
@@ -6015,7 +6015,7 @@
         <v>64</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D95" s="1">
         <v>443</v>
@@ -6024,7 +6024,7 @@
         <v>71</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>17</v>
@@ -6043,7 +6043,7 @@
         <v>64</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D96" s="1">
         <v>443</v>
@@ -6052,7 +6052,7 @@
         <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>17</v>
@@ -6075,7 +6075,7 @@
         <v>64</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D97" s="1">
         <v>443</v>
@@ -6084,7 +6084,7 @@
         <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>17</v>
@@ -6097,22 +6097,22 @@
     </row>
     <row r="98" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A98" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98" s="3">
+        <v>443</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D98" s="3">
-        <v>443</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
@@ -6123,22 +6123,22 @@
     </row>
     <row r="99" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A99" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C99" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="3">
+        <v>443</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F99" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="D99" s="3">
-        <v>443</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="G99" s="33"/>
       <c r="H99" s="33"/>
@@ -6149,22 +6149,22 @@
     </row>
     <row r="100" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A100" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D100" s="3">
         <v>443</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G100" s="33"/>
       <c r="H100" s="33"/>
@@ -6175,22 +6175,22 @@
     </row>
     <row r="101" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A101" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D101" s="3">
         <v>443</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G101" s="34"/>
       <c r="H101" s="34"/>
@@ -6270,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -6298,7 +6298,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -6326,7 +6326,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -6354,7 +6354,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -6386,7 +6386,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>13</v>
@@ -6416,7 +6416,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -6446,7 +6446,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -6476,7 +6476,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
@@ -6506,7 +6506,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -6536,7 +6536,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -6566,7 +6566,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>38</v>
@@ -6596,7 +6596,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>38</v>
@@ -6626,7 +6626,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>96</v>
@@ -6635,7 +6635,7 @@
         <v>443</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>98</v>
@@ -6658,7 +6658,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>96</v>
@@ -6667,7 +6667,7 @@
         <v>443</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>98</v>
@@ -6690,7 +6690,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>96</v>
@@ -6699,7 +6699,7 @@
         <v>443</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>98</v>
@@ -6720,7 +6720,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>96</v>
@@ -6729,7 +6729,7 @@
         <v>443</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>98</v>
@@ -6752,16 +6752,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D18" s="1">
         <v>443</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>35</v>
@@ -6782,16 +6782,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D19" s="1">
         <v>443</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>48</v>
@@ -6814,16 +6814,16 @@
         <v>12</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D20" s="1">
         <v>443</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>55</v>
@@ -6850,16 +6850,16 @@
         <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D21" s="1">
         <v>443</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>55</v>
@@ -6886,16 +6886,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D22" s="1">
         <v>443</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>60</v>
@@ -6914,16 +6914,16 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D23" s="1">
         <v>443</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>60</v>
@@ -6942,16 +6942,16 @@
         <v>12</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D24" s="1">
         <v>443</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>52</v>
@@ -6974,16 +6974,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D25" s="1">
         <v>443</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>52</v>
@@ -7006,16 +7006,16 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D26" s="1">
         <v>443</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>52</v>
@@ -7034,16 +7034,16 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D27" s="1">
         <v>443</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>52</v>
@@ -7066,16 +7066,16 @@
         <v>12</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D28" s="1">
         <v>443</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>52</v>
@@ -7098,16 +7098,16 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D29" s="1">
         <v>443</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>52</v>
@@ -7126,16 +7126,16 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D30" s="1">
         <v>443</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>35</v>
@@ -7156,16 +7156,16 @@
         <v>12</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D31" s="1">
         <v>443</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>48</v>
@@ -7188,16 +7188,16 @@
         <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D32" s="1">
         <v>443</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>55</v>
@@ -7224,16 +7224,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D33" s="1">
         <v>443</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>55</v>
@@ -7260,16 +7260,16 @@
         <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D34" s="1">
         <v>443</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>60</v>
@@ -7288,16 +7288,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D35" s="1">
         <v>443</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>60</v>
@@ -7316,16 +7316,16 @@
         <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D36" s="1">
         <v>443</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>52</v>
@@ -7348,16 +7348,16 @@
         <v>12</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D37" s="1">
         <v>443</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>52</v>
@@ -7380,16 +7380,16 @@
         <v>12</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D38" s="1">
         <v>443</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>52</v>
@@ -7408,16 +7408,16 @@
         <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D39" s="1">
         <v>443</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>52</v>
@@ -7440,16 +7440,16 @@
         <v>12</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D40" s="1">
         <v>443</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>52</v>
@@ -7472,16 +7472,16 @@
         <v>12</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D41" s="1">
         <v>443</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>52</v>
@@ -7500,16 +7500,16 @@
         <v>12</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D42" s="1">
         <v>443</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>35</v>
@@ -7530,16 +7530,16 @@
         <v>12</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D43" s="1">
         <v>443</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>48</v>
@@ -7562,16 +7562,16 @@
         <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D44" s="1">
         <v>443</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>55</v>
@@ -7598,16 +7598,16 @@
         <v>12</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D45" s="1">
         <v>443</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>55</v>
@@ -7634,16 +7634,16 @@
         <v>12</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D46" s="1">
         <v>443</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>60</v>
@@ -7662,16 +7662,16 @@
         <v>12</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D47" s="1">
         <v>443</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>60</v>
@@ -7690,16 +7690,16 @@
         <v>12</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D48" s="1">
         <v>443</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>52</v>
@@ -7722,16 +7722,16 @@
         <v>12</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D49" s="1">
         <v>443</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>52</v>
@@ -7754,16 +7754,16 @@
         <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1">
         <v>443</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>52</v>
@@ -7782,16 +7782,16 @@
         <v>12</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D51" s="1">
         <v>443</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>52</v>
@@ -7814,16 +7814,16 @@
         <v>12</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D52" s="1">
         <v>443</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>52</v>
@@ -7846,16 +7846,16 @@
         <v>12</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D53" s="1">
         <v>443</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>52</v>
@@ -7874,7 +7874,7 @@
         <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>109</v>
@@ -7900,7 +7900,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>109</v>
@@ -7926,7 +7926,7 @@
         <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>109</v>
@@ -7952,7 +7952,7 @@
         <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>114</v>
@@ -7961,10 +7961,10 @@
         <v>443</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -7978,7 +7978,7 @@
         <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>114</v>
@@ -7987,10 +7987,10 @@
         <v>443</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -8004,7 +8004,7 @@
         <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>114</v>
@@ -8013,10 +8013,10 @@
         <v>443</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -8030,16 +8030,16 @@
         <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D60" s="1">
         <v>80</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>21</v>
@@ -8056,16 +8056,16 @@
         <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D61" s="1">
         <v>80</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>21</v>
@@ -8082,16 +8082,16 @@
         <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D62" s="1">
         <v>80</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>21</v>
@@ -8108,16 +8108,16 @@
         <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D63" s="1">
         <v>80</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>21</v>
@@ -8134,19 +8134,19 @@
         <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D64" s="1">
+        <v>443</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="1">
-        <v>443</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -8160,10 +8160,10 @@
         <v>103</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D65" s="3">
         <v>443</v>
@@ -8172,7 +8172,7 @@
         <v>30</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G65" s="33" t="s">
         <v>17</v>
@@ -8190,7 +8190,7 @@
         <v>103</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>104</v>
@@ -8199,7 +8199,7 @@
         <v>443</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>106</v>
@@ -8216,16 +8216,16 @@
         <v>103</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D67" s="1">
         <v>443</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>52</v>
@@ -8248,16 +8248,16 @@
         <v>103</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="1">
         <v>443</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>52</v>
@@ -8280,16 +8280,16 @@
         <v>103</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" s="1">
         <v>443</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>52</v>
@@ -8308,16 +8308,16 @@
         <v>103</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D70" s="1">
         <v>443</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>52</v>
@@ -8340,16 +8340,16 @@
         <v>103</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D71" s="1">
         <v>443</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>52</v>
@@ -8372,16 +8372,16 @@
         <v>103</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D72" s="1">
         <v>443</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>52</v>
@@ -8400,7 +8400,7 @@
         <v>103</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>104</v>
@@ -8409,7 +8409,7 @@
         <v>443</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>106</v>
@@ -8426,16 +8426,16 @@
         <v>103</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D74" s="1">
         <v>443</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>52</v>
@@ -8458,16 +8458,16 @@
         <v>103</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D75" s="1">
         <v>443</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>52</v>
@@ -8490,16 +8490,16 @@
         <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1">
         <v>443</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>52</v>
@@ -8518,16 +8518,16 @@
         <v>103</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="1">
         <v>443</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>52</v>
@@ -8550,16 +8550,16 @@
         <v>103</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D78" s="1">
         <v>443</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>52</v>
@@ -8582,16 +8582,16 @@
         <v>103</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D79" s="1">
         <v>443</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>52</v>
@@ -8610,7 +8610,7 @@
         <v>103</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>104</v>
@@ -8619,7 +8619,7 @@
         <v>443</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>106</v>
@@ -8636,16 +8636,16 @@
         <v>103</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D81" s="1">
         <v>443</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>52</v>
@@ -8668,16 +8668,16 @@
         <v>103</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="1">
         <v>443</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>52</v>
@@ -8700,16 +8700,16 @@
         <v>103</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D83" s="1">
         <v>443</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>52</v>
@@ -8728,16 +8728,16 @@
         <v>103</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D84" s="1">
         <v>443</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>52</v>
@@ -8760,16 +8760,16 @@
         <v>103</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D85" s="1">
         <v>443</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>52</v>
@@ -8792,16 +8792,16 @@
         <v>103</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D86" s="1">
         <v>443</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>52</v>
@@ -8817,22 +8817,22 @@
     </row>
     <row r="87" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C87" s="5" t="s">
+      <c r="D87" s="1">
+        <v>443</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D87" s="1">
-        <v>443</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -8843,22 +8843,22 @@
     </row>
     <row r="88" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A88" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C88" s="5" t="s">
+      <c r="D88" s="1">
+        <v>443</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D88" s="1">
-        <v>443</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -8869,22 +8869,22 @@
     </row>
     <row r="89" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A89" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C89" s="5" t="s">
+      <c r="D89" s="1">
+        <v>443</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D89" s="1">
-        <v>443</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -8924,10 +8924,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8938,10 +8938,10 @@
         <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8955,7 +8955,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8966,10 +8966,10 @@
         <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8980,10 +8980,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -8994,10 +8994,10 @@
         <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9008,10 +9008,10 @@
         <v>16</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9022,10 +9022,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9036,10 +9036,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -9073,10 +9073,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9084,13 +9084,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9098,13 +9098,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9112,13 +9112,13 @@
         <v>12</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9126,13 +9126,13 @@
         <v>12</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9140,13 +9140,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9154,13 +9154,13 @@
         <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9168,13 +9168,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9182,13 +9182,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>240</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9196,13 +9196,13 @@
         <v>12</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9210,13 +9210,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9224,13 +9224,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>236</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>241</v>
-      </c>
       <c r="D12" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9238,13 +9238,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9252,13 +9252,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9266,13 +9266,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="36" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -9299,298 +9299,298 @@
   <sheetData>
     <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="17"/>
       <c r="B3" s="18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="22" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="23" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C14" s="19"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B17" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C19" s="22" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="25" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="26"/>
       <c r="B22" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="21" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B25" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>178</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="22" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -9601,22 +9601,22 @@
     </row>
     <row r="32" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="40" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="29" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="128.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="30" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -9647,10 +9647,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
@@ -9658,7 +9658,7 @@
         <v>44245</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
@@ -9666,7 +9666,7 @@
         <v>44230</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
@@ -9674,7 +9674,7 @@
         <v>44229</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
@@ -9682,7 +9682,7 @@
         <v>44181</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9690,7 +9690,7 @@
         <v>44151</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -9698,7 +9698,7 @@
         <v>44021</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
